--- a/data/trans_orig/IP07A01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B19ED576-3B6E-4AFA-956C-B16C10B385FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{900367EB-AE6B-45C1-B7C3-C912F0E419E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{22E6BE74-74B6-487D-84E1-D278D81F9974}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8773E55A-D9B5-45CC-8EF4-4A177CC99AA6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,33 +71,195 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
     <t>Moderadamente</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
     <t>Mucho</t>
   </si>
   <si>
     <t>Muchísimo</t>
   </si>
   <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>Poco</t>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>100%</t>
   </si>
   <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
     <t>4,72%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
     <t>7,01%</t>
   </si>
   <si>
@@ -119,9 +281,6 @@
     <t>7,36%</t>
   </si>
   <si>
-    <t>43,97%</t>
-  </si>
-  <si>
     <t>39,41%</t>
   </si>
   <si>
@@ -170,163 +329,52 @@
     <t>53,58%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
   </si>
   <si>
     <t>4,39%</t>
@@ -410,57 +458,150 @@
     <t>53,53%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
     <t>Menores según frecuencia de sentirse bien y en forma en 2012 (Tasa respuesta: 44,83%)</t>
   </si>
   <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
     <t>5,85%</t>
   </si>
   <si>
@@ -482,9 +623,6 @@
     <t>5,91%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
     <t>8,07%</t>
   </si>
   <si>
@@ -539,142 +677,40 @@
     <t>40,83%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
   </si>
   <si>
     <t>5,63%</t>
@@ -758,45 +794,150 @@
     <t>40,6%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
     <t>Menores según frecuencia de sentirse bien y en forma en 2015 (Tasa respuesta: 47,32%)</t>
   </si>
   <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
     <t>3,42%</t>
   </si>
   <si>
@@ -875,145 +1016,46 @@
     <t>58,83%</t>
   </si>
   <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
   </si>
   <si>
     <t>4,37%</t>
@@ -1085,51 +1127,144 @@
     <t>57,93%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
     <t>Menores según frecuencia de sentirse bien y en forma en 2023 (Tasa respuesta: 50,31%)</t>
   </si>
   <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
     <t>9,2%</t>
   </si>
   <si>
@@ -1199,139 +1334,34 @@
     <t>66,23%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
   </si>
   <si>
     <t>5,81%</t>
@@ -1401,36 +1431,6 @@
   </si>
   <si>
     <t>65,59%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
   </si>
 </sst>
 </file>
@@ -1822,7 +1822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998A5970-59D6-416A-869B-E1AD7E6F0486}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD702A8-8F92-421F-8A7E-ECA179CA6AFC}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2212,10 +2212,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>13206</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -2227,34 +2227,34 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>16834</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="7">
-        <v>44</v>
-      </c>
-      <c r="N10" s="7">
-        <v>30040</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,49 +2263,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>182</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>122907</v>
+        <v>1957</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>527</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>4</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2484</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="7">
-        <v>158</v>
-      </c>
-      <c r="I11" s="7">
-        <v>105793</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="7">
-        <v>340</v>
-      </c>
-      <c r="N11" s="7">
-        <v>228700</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2314,49 +2314,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>209</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>138308</v>
+        <v>1979</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="7">
+        <v>5</v>
+      </c>
+      <c r="I12" s="7">
+        <v>3112</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>8</v>
+      </c>
+      <c r="N12" s="7">
+        <v>5091</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="7">
-        <v>203</v>
-      </c>
-      <c r="I12" s="7">
-        <v>136907</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="7">
-        <v>412</v>
-      </c>
-      <c r="N12" s="7">
-        <v>275214</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,49 +2365,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D13" s="7">
-        <v>1260</v>
+        <v>23762</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="7">
+        <v>41</v>
+      </c>
+      <c r="I13" s="7">
+        <v>27923</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>77</v>
+      </c>
+      <c r="N13" s="7">
+        <v>51684</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>793</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="M13" s="7">
-        <v>3</v>
-      </c>
-      <c r="N13" s="7">
-        <v>2053</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,49 +2416,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D14" s="7">
-        <v>3840</v>
+        <v>38368</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="7">
+        <v>36</v>
+      </c>
+      <c r="I14" s="7">
+        <v>24481</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="7">
-        <v>8</v>
-      </c>
-      <c r="I14" s="7">
-        <v>5276</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>94</v>
+      </c>
+      <c r="N14" s="7">
+        <v>62848</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M14" s="7">
-        <v>14</v>
-      </c>
-      <c r="N14" s="7">
-        <v>9116</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,102 +2467,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>419</v>
+        <v>100</v>
       </c>
       <c r="D15" s="7">
-        <v>279521</v>
+        <v>66066</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
-        <v>394</v>
+        <v>83</v>
       </c>
       <c r="I15" s="7">
-        <v>265603</v>
+        <v>56042</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
-        <v>813</v>
+        <v>183</v>
       </c>
       <c r="N15" s="7">
-        <v>545124</v>
+        <v>122107</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1260</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>793</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" s="7">
         <v>3</v>
       </c>
-      <c r="D16" s="7">
-        <v>1979</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="7">
-        <v>5</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3112</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="N16" s="7">
+        <v>2053</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="M16" s="7">
-        <v>8</v>
-      </c>
-      <c r="N16" s="7">
-        <v>5091</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,49 +2571,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>23762</v>
+        <v>3840</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="7">
+        <v>8</v>
+      </c>
+      <c r="I17" s="7">
+        <v>5276</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>14</v>
+      </c>
+      <c r="N17" s="7">
+        <v>9116</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="P17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="H17" s="7">
-        <v>41</v>
-      </c>
-      <c r="I17" s="7">
-        <v>27923</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M17" s="7">
-        <v>77</v>
-      </c>
-      <c r="N17" s="7">
-        <v>51684</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2622,49 +2622,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="D18" s="7">
-        <v>38368</v>
+        <v>13206</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="7">
+        <v>24</v>
+      </c>
+      <c r="I18" s="7">
+        <v>16834</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M18" s="7">
+        <v>44</v>
+      </c>
+      <c r="N18" s="7">
+        <v>30040</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="7">
-        <v>36</v>
-      </c>
-      <c r="I18" s="7">
-        <v>24481</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M18" s="7">
-        <v>94</v>
-      </c>
-      <c r="N18" s="7">
-        <v>62848</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2673,49 +2673,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>122907</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>105793</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>228700</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>86</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,46 +2724,46 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>209</v>
       </c>
       <c r="D20" s="7">
-        <v>1957</v>
+        <v>138308</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>203</v>
+      </c>
+      <c r="I20" s="7">
+        <v>136907</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>527</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="K20" s="7" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="L20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M20" s="7">
+        <v>412</v>
+      </c>
+      <c r="N20" s="7">
+        <v>275214</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2484</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>95</v>
@@ -2775,49 +2775,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>100</v>
+        <v>419</v>
       </c>
       <c r="D21" s="7">
-        <v>66066</v>
+        <v>279521</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>83</v>
+        <v>394</v>
       </c>
       <c r="I21" s="7">
-        <v>56042</v>
+        <v>265603</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>183</v>
+        <v>813</v>
       </c>
       <c r="N21" s="7">
-        <v>122107</v>
+        <v>545124</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,49 +2828,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>15185</v>
+        <v>1260</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>96</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>793</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H22" s="7">
-        <v>29</v>
-      </c>
-      <c r="I22" s="7">
-        <v>19946</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>3</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2053</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="M22" s="7">
-        <v>52</v>
-      </c>
-      <c r="N22" s="7">
-        <v>35131</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,49 +2879,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>218</v>
+        <v>9</v>
       </c>
       <c r="D23" s="7">
-        <v>146669</v>
+        <v>5798</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>9</v>
+      </c>
+      <c r="I23" s="7">
+        <v>5802</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H23" s="7">
-        <v>199</v>
-      </c>
-      <c r="I23" s="7">
-        <v>133716</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>18</v>
+      </c>
+      <c r="N23" s="7">
+        <v>11600</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="M23" s="7">
-        <v>417</v>
-      </c>
-      <c r="N23" s="7">
-        <v>280385</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,49 +2930,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>267</v>
+        <v>23</v>
       </c>
       <c r="D24" s="7">
-        <v>176676</v>
+        <v>15185</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>29</v>
+      </c>
+      <c r="I24" s="7">
+        <v>19946</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H24" s="7">
-        <v>239</v>
-      </c>
-      <c r="I24" s="7">
-        <v>161388</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>52</v>
+      </c>
+      <c r="N24" s="7">
+        <v>35131</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="M24" s="7">
-        <v>506</v>
-      </c>
-      <c r="N24" s="7">
-        <v>338063</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,40 +2981,40 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="D25" s="7">
-        <v>1260</v>
+        <v>146669</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>199</v>
+      </c>
+      <c r="I25" s="7">
+        <v>133716</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>793</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>126</v>
       </c>
       <c r="M25" s="7">
-        <v>3</v>
+        <v>417</v>
       </c>
       <c r="N25" s="7">
-        <v>2053</v>
+        <v>280385</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>127</v>
@@ -3032,10 +3032,10 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>9</v>
+        <v>267</v>
       </c>
       <c r="D26" s="7">
-        <v>5798</v>
+        <v>176676</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>130</v>
@@ -3047,10 +3047,10 @@
         <v>132</v>
       </c>
       <c r="H26" s="7">
-        <v>9</v>
+        <v>239</v>
       </c>
       <c r="I26" s="7">
-        <v>5802</v>
+        <v>161388</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>133</v>
@@ -3062,10 +3062,10 @@
         <v>135</v>
       </c>
       <c r="M26" s="7">
-        <v>18</v>
+        <v>506</v>
       </c>
       <c r="N26" s="7">
-        <v>11600</v>
+        <v>338063</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>136</v>
@@ -3089,13 +3089,13 @@
         <v>345587</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>477</v>
@@ -3104,13 +3104,13 @@
         <v>321645</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>996</v>
@@ -3119,13 +3119,13 @@
         <v>667232</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3144,7 +3144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452BD08F-8A21-4A5F-80EC-F3ABB9CD5D9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1E9DF6-7368-484B-B1B8-DD5C4790F56C}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3534,49 +3534,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>15537</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H10" s="7">
-        <v>22</v>
-      </c>
-      <c r="I10" s="7">
-        <v>14993</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M10" s="7">
-        <v>44</v>
-      </c>
-      <c r="N10" s="7">
-        <v>30531</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,49 +3585,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>134439</v>
+        <v>1327</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H11" s="7">
-        <v>208</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>148091</v>
+        <v>695</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>151</v>
+        <v>31</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="M11" s="7">
-        <v>404</v>
+        <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>282531</v>
+        <v>2022</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3636,49 +3636,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>161</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>107701</v>
+        <v>3133</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="H12" s="7">
-        <v>122</v>
+        <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>83943</v>
+        <v>4282</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="M12" s="7">
-        <v>283</v>
+        <v>10</v>
       </c>
       <c r="N12" s="7">
-        <v>191644</v>
+        <v>7416</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>164</v>
+        <v>71</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3687,49 +3687,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="D13" s="7">
-        <v>2559</v>
+        <v>35517</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>39452</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="N13" s="7">
-        <v>2559</v>
+        <v>74968</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,49 +3738,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D14" s="7">
-        <v>5429</v>
+        <v>26197</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14" s="7">
+        <v>39</v>
+      </c>
+      <c r="I14" s="7">
+        <v>27540</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M14" s="7">
+        <v>76</v>
+      </c>
+      <c r="N14" s="7">
+        <v>53738</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H14" s="7">
-        <v>5</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3649</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="M14" s="7">
-        <v>13</v>
-      </c>
-      <c r="N14" s="7">
-        <v>9078</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,54 +3789,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>391</v>
+        <v>92</v>
       </c>
       <c r="D15" s="7">
-        <v>265666</v>
+        <v>66174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
-        <v>357</v>
+        <v>101</v>
       </c>
       <c r="I15" s="7">
-        <v>250676</v>
+        <v>71969</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
-        <v>748</v>
+        <v>193</v>
       </c>
       <c r="N15" s="7">
-        <v>516342</v>
+        <v>138143</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3845,46 +3845,46 @@
         <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>3133</v>
+        <v>2559</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H16" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>4282</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>184</v>
+        <v>17</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="M16" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>7416</v>
+        <v>2559</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,49 +3893,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>35517</v>
+        <v>5429</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>190</v>
+        <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="H17" s="7">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>39452</v>
+        <v>3649</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="M17" s="7">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="N17" s="7">
-        <v>74968</v>
+        <v>9078</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,49 +3944,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D18" s="7">
-        <v>26197</v>
+        <v>15537</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="H18" s="7">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I18" s="7">
-        <v>27540</v>
+        <v>14993</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="M18" s="7">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="N18" s="7">
-        <v>53738</v>
+        <v>30531</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,49 +3995,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>134439</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>148091</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>44</v>
+        <v>197</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>86</v>
+        <v>198</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>282531</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>86</v>
+        <v>201</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,49 +4046,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>161</v>
       </c>
       <c r="D20" s="7">
-        <v>1327</v>
+        <v>107701</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H20" s="7">
+        <v>122</v>
+      </c>
+      <c r="I20" s="7">
+        <v>83943</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>283</v>
+      </c>
+      <c r="N20" s="7">
+        <v>191644</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>695</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="M20" s="7">
-        <v>3</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2022</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,49 +4097,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>92</v>
+        <v>391</v>
       </c>
       <c r="D21" s="7">
-        <v>66174</v>
+        <v>265666</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>101</v>
+        <v>357</v>
       </c>
       <c r="I21" s="7">
-        <v>71969</v>
+        <v>250676</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>193</v>
+        <v>748</v>
       </c>
       <c r="N21" s="7">
-        <v>138143</v>
+        <v>516342</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,10 +4150,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>18671</v>
+        <v>2559</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>212</v>
@@ -4165,34 +4165,34 @@
         <v>214</v>
       </c>
       <c r="H22" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>19275</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>4</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2559</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="M22" s="7">
-        <v>54</v>
-      </c>
-      <c r="N22" s="7">
-        <v>37946</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>220</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,49 +4201,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>245</v>
+        <v>10</v>
       </c>
       <c r="D23" s="7">
-        <v>169956</v>
+        <v>6756</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H23" s="7">
+        <v>6</v>
+      </c>
+      <c r="I23" s="7">
+        <v>4343</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M23" s="7">
+        <v>16</v>
+      </c>
+      <c r="N23" s="7">
+        <v>11099</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="H23" s="7">
-        <v>263</v>
-      </c>
-      <c r="I23" s="7">
-        <v>187543</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M23" s="7">
-        <v>508</v>
-      </c>
-      <c r="N23" s="7">
-        <v>357499</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,49 +4252,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>198</v>
+        <v>26</v>
       </c>
       <c r="D24" s="7">
-        <v>133898</v>
+        <v>18671</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H24" s="7">
+        <v>28</v>
+      </c>
+      <c r="I24" s="7">
+        <v>19275</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M24" s="7">
+        <v>54</v>
+      </c>
+      <c r="N24" s="7">
+        <v>37946</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="H24" s="7">
-        <v>161</v>
-      </c>
-      <c r="I24" s="7">
-        <v>111483</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="M24" s="7">
-        <v>359</v>
-      </c>
-      <c r="N24" s="7">
-        <v>245381</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,49 +4303,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>4</v>
+        <v>245</v>
       </c>
       <c r="D25" s="7">
-        <v>2559</v>
+        <v>169956</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H25" s="7">
+        <v>263</v>
+      </c>
+      <c r="I25" s="7">
+        <v>187543</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="M25" s="7">
+        <v>508</v>
+      </c>
+      <c r="N25" s="7">
+        <v>357499</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="M25" s="7">
-        <v>4</v>
-      </c>
-      <c r="N25" s="7">
-        <v>2559</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,40 +4354,40 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="D26" s="7">
-        <v>6756</v>
+        <v>133898</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>173</v>
+        <v>242</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>54</v>
+        <v>243</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H26" s="7">
+        <v>161</v>
+      </c>
+      <c r="I26" s="7">
+        <v>111483</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="H26" s="7">
-        <v>6</v>
-      </c>
-      <c r="I26" s="7">
-        <v>4343</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>247</v>
       </c>
       <c r="M26" s="7">
-        <v>16</v>
+        <v>359</v>
       </c>
       <c r="N26" s="7">
-        <v>11099</v>
+        <v>245381</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>248</v>
@@ -4411,13 +4411,13 @@
         <v>331840</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>458</v>
@@ -4426,13 +4426,13 @@
         <v>322645</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>941</v>
@@ -4441,13 +4441,13 @@
         <v>654485</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4466,7 +4466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E58B8B-5DF1-493C-B38D-F30E8373B26B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657CF989-066F-4D06-BF01-4E69BF0E3021}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4856,49 +4856,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>9626</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1030</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="H10" s="7">
-        <v>15</v>
-      </c>
-      <c r="I10" s="7">
-        <v>10616</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1030</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="M10" s="7">
-        <v>28</v>
-      </c>
-      <c r="N10" s="7">
-        <v>20242</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,49 +4907,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>139</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>101942</v>
+        <v>2397</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2397</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="H11" s="7">
-        <v>152</v>
-      </c>
-      <c r="I11" s="7">
-        <v>109034</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="M11" s="7">
-        <v>291</v>
-      </c>
-      <c r="N11" s="7">
-        <v>210976</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,49 +4958,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>224</v>
+        <v>9</v>
       </c>
       <c r="D12" s="7">
-        <v>165910</v>
+        <v>6160</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H12" s="7">
+        <v>7</v>
+      </c>
+      <c r="I12" s="7">
+        <v>5705</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="M12" s="7">
+        <v>16</v>
+      </c>
+      <c r="N12" s="7">
+        <v>11866</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H12" s="7">
-        <v>194</v>
-      </c>
-      <c r="I12" s="7">
-        <v>137932</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="M12" s="7">
-        <v>418</v>
-      </c>
-      <c r="N12" s="7">
-        <v>303842</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,49 +5009,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D13" s="7">
-        <v>690</v>
+        <v>25391</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>125</v>
+        <v>271</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>272</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H13" s="7">
+        <v>62</v>
+      </c>
+      <c r="I13" s="7">
+        <v>40155</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="M13" s="7">
+        <v>99</v>
+      </c>
+      <c r="N13" s="7">
+        <v>65547</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2026</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="M13" s="7">
-        <v>4</v>
-      </c>
-      <c r="N13" s="7">
-        <v>2716</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5060,49 +5060,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="D14" s="7">
-        <v>3461</v>
+        <v>45783</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H14" s="7">
+        <v>68</v>
+      </c>
+      <c r="I14" s="7">
+        <v>44622</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H14" s="7">
-        <v>8</v>
-      </c>
-      <c r="I14" s="7">
-        <v>5651</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>134</v>
+      </c>
+      <c r="N14" s="7">
+        <v>90405</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="M14" s="7">
-        <v>12</v>
-      </c>
-      <c r="N14" s="7">
-        <v>9111</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>249</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>180</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,102 +5111,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>381</v>
+        <v>115</v>
       </c>
       <c r="D15" s="7">
-        <v>281629</v>
+        <v>79732</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
-        <v>372</v>
+        <v>138</v>
       </c>
       <c r="I15" s="7">
-        <v>265259</v>
+        <v>91513</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
-        <v>753</v>
+        <v>253</v>
       </c>
       <c r="N15" s="7">
-        <v>546888</v>
+        <v>171245</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>6160</v>
+        <v>690</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>5705</v>
+        <v>2026</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M16" s="7">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>11866</v>
+        <v>2716</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>292</v>
+        <v>178</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,49 +5215,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>25391</v>
+        <v>3461</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H17" s="7">
+        <v>8</v>
+      </c>
+      <c r="I17" s="7">
+        <v>5651</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="H17" s="7">
-        <v>62</v>
-      </c>
-      <c r="I17" s="7">
-        <v>40155</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>300</v>
-      </c>
       <c r="M17" s="7">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="N17" s="7">
-        <v>65547</v>
+        <v>9111</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>301</v>
+        <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>302</v>
+        <v>222</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>303</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5266,49 +5266,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="D18" s="7">
-        <v>45783</v>
+        <v>9626</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H18" s="7">
+        <v>15</v>
+      </c>
+      <c r="I18" s="7">
+        <v>10616</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>28</v>
+      </c>
+      <c r="N18" s="7">
+        <v>20242</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="H18" s="7">
-        <v>68</v>
-      </c>
-      <c r="I18" s="7">
-        <v>44622</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="M18" s="7">
-        <v>134</v>
-      </c>
-      <c r="N18" s="7">
-        <v>90405</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,49 +5317,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>101942</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>44</v>
+        <v>307</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>86</v>
+        <v>308</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H19" s="7">
+        <v>152</v>
+      </c>
+      <c r="I19" s="7">
+        <v>109034</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="M19" s="7">
+        <v>291</v>
+      </c>
+      <c r="N19" s="7">
+        <v>210976</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1030</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1030</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,40 +5368,40 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>224</v>
       </c>
       <c r="D20" s="7">
-        <v>2397</v>
+        <v>165910</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>194</v>
+      </c>
+      <c r="I20" s="7">
+        <v>137932</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>321</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>418</v>
       </c>
       <c r="N20" s="7">
-        <v>2397</v>
+        <v>303842</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>322</v>
@@ -5419,49 +5419,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>115</v>
+        <v>381</v>
       </c>
       <c r="D21" s="7">
-        <v>79732</v>
+        <v>281629</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>138</v>
+        <v>372</v>
       </c>
       <c r="I21" s="7">
-        <v>91513</v>
+        <v>265259</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>253</v>
+        <v>753</v>
       </c>
       <c r="N21" s="7">
-        <v>171245</v>
+        <v>546888</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,49 +5472,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>15786</v>
+        <v>690</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>325</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H22" s="7">
+        <v>4</v>
+      </c>
+      <c r="I22" s="7">
+        <v>3056</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="H22" s="7">
-        <v>22</v>
-      </c>
-      <c r="I22" s="7">
-        <v>16322</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>5</v>
+      </c>
+      <c r="N22" s="7">
+        <v>3746</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="M22" s="7">
-        <v>44</v>
-      </c>
-      <c r="N22" s="7">
-        <v>32108</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,49 +5523,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>176</v>
+        <v>7</v>
       </c>
       <c r="D23" s="7">
-        <v>127333</v>
+        <v>5858</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>30</v>
+        <v>330</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H23" s="7">
+        <v>8</v>
+      </c>
+      <c r="I23" s="7">
+        <v>5651</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="H23" s="7">
-        <v>214</v>
-      </c>
-      <c r="I23" s="7">
-        <v>149189</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>15</v>
+      </c>
+      <c r="N23" s="7">
+        <v>11508</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="M23" s="7">
-        <v>390</v>
-      </c>
-      <c r="N23" s="7">
-        <v>276522</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,40 +5574,40 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="D24" s="7">
-        <v>211694</v>
+        <v>15786</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>156</v>
+        <v>339</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>37</v>
+        <v>340</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H24" s="7">
+        <v>22</v>
+      </c>
+      <c r="I24" s="7">
+        <v>16322</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="H24" s="7">
-        <v>262</v>
-      </c>
-      <c r="I24" s="7">
-        <v>182554</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="L24" s="7" t="s">
-        <v>150</v>
-      </c>
       <c r="M24" s="7">
-        <v>552</v>
+        <v>44</v>
       </c>
       <c r="N24" s="7">
-        <v>394248</v>
+        <v>32108</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>345</v>
@@ -5625,49 +5625,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="D25" s="7">
-        <v>690</v>
+        <v>127333</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>166</v>
+        <v>349</v>
       </c>
       <c r="H25" s="7">
-        <v>4</v>
+        <v>214</v>
       </c>
       <c r="I25" s="7">
-        <v>3056</v>
+        <v>149189</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>90</v>
+        <v>350</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M25" s="7">
-        <v>5</v>
+        <v>390</v>
       </c>
       <c r="N25" s="7">
-        <v>3746</v>
+        <v>276522</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>353</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,40 +5676,40 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>7</v>
+        <v>290</v>
       </c>
       <c r="D26" s="7">
-        <v>5858</v>
+        <v>211694</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>353</v>
+        <v>202</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>354</v>
+        <v>90</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H26" s="7">
-        <v>8</v>
+        <v>262</v>
       </c>
       <c r="I26" s="7">
-        <v>5651</v>
+        <v>182554</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>358</v>
+        <v>196</v>
       </c>
       <c r="M26" s="7">
-        <v>15</v>
+        <v>552</v>
       </c>
       <c r="N26" s="7">
-        <v>11508</v>
+        <v>394248</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>359</v>
@@ -5733,13 +5733,13 @@
         <v>361361</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>510</v>
@@ -5748,13 +5748,13 @@
         <v>356772</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>1006</v>
@@ -5763,13 +5763,13 @@
         <v>718133</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -5788,7 +5788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE9576C-E8D8-4D89-9B9D-BA53420326AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54272A54-8958-4CE6-B24D-462C84224B76}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6178,49 +6178,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>20869</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>333</v>
+        <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>324</v>
+        <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>363</v>
       </c>
       <c r="H10" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>7745</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="M10" s="7">
-        <v>33</v>
-      </c>
-      <c r="N10" s="7">
-        <v>28613</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,49 +6229,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>129</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>104293</v>
+        <v>2330</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1424</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>5</v>
+      </c>
+      <c r="N11" s="7">
+        <v>3754</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="H11" s="7">
-        <v>143</v>
-      </c>
-      <c r="I11" s="7">
-        <v>100168</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="M11" s="7">
-        <v>272</v>
-      </c>
-      <c r="N11" s="7">
-        <v>204461</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,49 +6280,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>250</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>220540</v>
+        <v>3471</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>191</v>
+        <v>372</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="H12" s="7">
-        <v>233</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>184467</v>
+        <v>605</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>380</v>
+        <v>31</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>381</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="M12" s="7">
-        <v>483</v>
+        <v>5</v>
       </c>
       <c r="N12" s="7">
-        <v>405006</v>
+        <v>4076</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>383</v>
+        <v>105</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,49 +6331,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7">
-        <v>1669</v>
+        <v>17021</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>379</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="I13" s="7">
-        <v>2364</v>
+        <v>22933</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M13" s="7">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="N13" s="7">
-        <v>4033</v>
+        <v>39954</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>391</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6382,49 +6382,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D14" s="7">
-        <v>3768</v>
+        <v>44775</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="H14" s="7">
+        <v>48</v>
+      </c>
+      <c r="I14" s="7">
+        <v>37491</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="M14" s="7">
+        <v>100</v>
+      </c>
+      <c r="N14" s="7">
+        <v>82266</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="H14" s="7">
-        <v>5</v>
-      </c>
-      <c r="I14" s="7">
-        <v>4688</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="M14" s="7">
-        <v>11</v>
-      </c>
-      <c r="N14" s="7">
-        <v>8455</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6433,102 +6433,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>409</v>
+        <v>80</v>
       </c>
       <c r="D15" s="7">
-        <v>351138</v>
+        <v>67597</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
-        <v>395</v>
+        <v>82</v>
       </c>
       <c r="I15" s="7">
-        <v>299431</v>
+        <v>62453</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
-        <v>804</v>
+        <v>162</v>
       </c>
       <c r="N15" s="7">
-        <v>650569</v>
+        <v>130050</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>3471</v>
+        <v>1669</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>400</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>605</v>
+        <v>2364</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>54</v>
+        <v>397</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>44</v>
+        <v>328</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>4076</v>
+        <v>4033</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>132</v>
+        <v>399</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>403</v>
+        <v>326</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6537,49 +6537,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>17021</v>
+        <v>3768</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H17" s="7">
+        <v>5</v>
+      </c>
+      <c r="I17" s="7">
+        <v>4688</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="M17" s="7">
+        <v>11</v>
+      </c>
+      <c r="N17" s="7">
+        <v>8455</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="H17" s="7">
-        <v>31</v>
-      </c>
-      <c r="I17" s="7">
-        <v>22933</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="M17" s="7">
-        <v>52</v>
-      </c>
-      <c r="N17" s="7">
-        <v>39954</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6588,49 +6588,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D18" s="7">
-        <v>44775</v>
+        <v>20869</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H18" s="7">
+        <v>11</v>
+      </c>
+      <c r="I18" s="7">
+        <v>7745</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="M18" s="7">
+        <v>33</v>
+      </c>
+      <c r="N18" s="7">
+        <v>28613</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="H18" s="7">
-        <v>48</v>
-      </c>
-      <c r="I18" s="7">
-        <v>37491</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="M18" s="7">
-        <v>100</v>
-      </c>
-      <c r="N18" s="7">
-        <v>82266</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6639,49 +6639,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>104293</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>44</v>
+        <v>414</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>86</v>
+        <v>415</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H19" s="7">
+        <v>143</v>
+      </c>
+      <c r="I19" s="7">
+        <v>100168</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="M19" s="7">
+        <v>272</v>
+      </c>
+      <c r="N19" s="7">
+        <v>204461</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6690,43 +6690,43 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>250</v>
       </c>
       <c r="D20" s="7">
-        <v>2330</v>
+        <v>220540</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="H20" s="7">
+        <v>233</v>
+      </c>
+      <c r="I20" s="7">
+        <v>184467</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1424</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>483</v>
+      </c>
+      <c r="N20" s="7">
+        <v>405006</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3754</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>429</v>
@@ -6741,49 +6741,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>80</v>
+        <v>409</v>
       </c>
       <c r="D21" s="7">
-        <v>67597</v>
+        <v>351138</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>82</v>
+        <v>395</v>
       </c>
       <c r="I21" s="7">
-        <v>62453</v>
+        <v>299431</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>162</v>
+        <v>804</v>
       </c>
       <c r="N21" s="7">
-        <v>130050</v>
+        <v>650569</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6794,49 +6794,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>24339</v>
+        <v>1669</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>431</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H22" s="7">
+        <v>3</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2364</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="H22" s="7">
-        <v>12</v>
-      </c>
-      <c r="I22" s="7">
-        <v>8350</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="M22" s="7">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="N22" s="7">
-        <v>32689</v>
+        <v>4033</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>434</v>
+        <v>183</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>18</v>
+        <v>325</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>435</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6845,49 +6845,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="D23" s="7">
-        <v>121314</v>
+        <v>6098</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H23" s="7">
+        <v>7</v>
+      </c>
+      <c r="I23" s="7">
+        <v>6111</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="H23" s="7">
-        <v>174</v>
-      </c>
-      <c r="I23" s="7">
-        <v>123101</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>16</v>
+      </c>
+      <c r="N23" s="7">
+        <v>12209</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="P23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="M23" s="7">
-        <v>324</v>
-      </c>
-      <c r="N23" s="7">
-        <v>244415</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6896,49 +6896,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>302</v>
+        <v>26</v>
       </c>
       <c r="D24" s="7">
-        <v>265314</v>
+        <v>24339</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="H24" s="7">
+        <v>12</v>
+      </c>
+      <c r="I24" s="7">
+        <v>8350</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M24" s="7">
+        <v>38</v>
+      </c>
+      <c r="N24" s="7">
+        <v>32689</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="H24" s="7">
-        <v>281</v>
-      </c>
-      <c r="I24" s="7">
-        <v>221958</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="M24" s="7">
-        <v>583</v>
-      </c>
-      <c r="N24" s="7">
-        <v>487272</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6947,49 +6947,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="D25" s="7">
-        <v>1669</v>
+        <v>121314</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H25" s="7">
+        <v>174</v>
+      </c>
+      <c r="I25" s="7">
+        <v>123101</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="M25" s="7">
+        <v>324</v>
+      </c>
+      <c r="N25" s="7">
+        <v>244415</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2364</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="M25" s="7">
-        <v>5</v>
-      </c>
-      <c r="N25" s="7">
-        <v>4033</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6998,46 +6998,46 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>9</v>
+        <v>302</v>
       </c>
       <c r="D26" s="7">
-        <v>6098</v>
+        <v>265314</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>455</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>281</v>
+      </c>
+      <c r="I26" s="7">
+        <v>221958</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="H26" s="7">
-        <v>7</v>
-      </c>
-      <c r="I26" s="7">
-        <v>6111</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>583</v>
+      </c>
+      <c r="N26" s="7">
+        <v>487272</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="M26" s="7">
-        <v>16</v>
-      </c>
-      <c r="N26" s="7">
-        <v>12209</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>463</v>
@@ -7055,13 +7055,13 @@
         <v>418734</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>477</v>
@@ -7070,13 +7070,13 @@
         <v>361884</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>966</v>
@@ -7085,13 +7085,13 @@
         <v>780619</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{900367EB-AE6B-45C1-B7C3-C912F0E419E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{800AA7A8-F958-4EDD-8D03-45DE3F360017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8773E55A-D9B5-45CC-8EF4-4A177CC99AA6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5562E1AF-1F9A-452A-A15D-FB4354E0DC4A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="467">
   <si>
     <t>Menores según frecuencia de sentirse bien y en forma en 2007 (Tasa respuesta: 47,34%)</t>
   </si>
@@ -68,1369 +68,1378 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>Poco</t>
   </si>
   <si>
     <t>Nada</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Poco</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>Muchísimo</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>1,9%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse bien y en forma en 2012 (Tasa respuesta: 44,83%)</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse bien y en forma en 2015 (Tasa respuesta: 47,32%)</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse bien y en forma en 2023 (Tasa respuesta: 50,31%)</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
   </si>
   <si>
     <t>0,11%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse bien y en forma en 2012 (Tasa respuesta: 44,83%)</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse bien y en forma en 2015 (Tasa respuesta: 47,32%)</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
   </si>
   <si>
     <t>3,42%</t>
   </si>
   <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse bien y en forma en 2023 (Tasa respuesta: 50,31%)</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
+    <t>0,14%</t>
   </si>
 </sst>
 </file>
@@ -1441,7 +1450,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1537,39 +1546,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1621,7 +1630,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1732,13 +1741,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1747,6 +1749,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1811,19 +1820,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD702A8-8F92-421F-8A7E-ECA179CA6AFC}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF91674-4182-47DD-A488-277B2214F714}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2214,47 +2243,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,49 +2286,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1957</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>527</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2484</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2314,49 +2331,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1979</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>5</v>
-      </c>
-      <c r="I12" s="7">
-        <v>3112</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>8</v>
-      </c>
-      <c r="N12" s="7">
-        <v>5091</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,49 +2376,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>36</v>
-      </c>
-      <c r="D13" s="7">
-        <v>23762</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>41</v>
-      </c>
-      <c r="I13" s="7">
-        <v>27923</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>77</v>
-      </c>
-      <c r="N13" s="7">
-        <v>51684</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,49 +2421,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>58</v>
-      </c>
-      <c r="D14" s="7">
-        <v>38368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>36</v>
-      </c>
-      <c r="I14" s="7">
-        <v>24481</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>94</v>
-      </c>
-      <c r="N14" s="7">
-        <v>62848</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,102 +2466,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>100</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>83</v>
-      </c>
-      <c r="I15" s="7">
-        <v>56042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>183</v>
-      </c>
-      <c r="N15" s="7">
-        <v>122107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="D16" s="7">
-        <v>1260</v>
+        <v>69938</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="I16" s="7">
-        <v>793</v>
+        <v>56542</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>190</v>
       </c>
       <c r="N16" s="7">
-        <v>2053</v>
+        <v>126480</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,49 +2564,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="D17" s="7">
-        <v>3840</v>
+        <v>62445</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="I17" s="7">
-        <v>5276</v>
+        <v>59385</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="N17" s="7">
-        <v>9116</v>
+        <v>121830</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2622,49 +2615,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D18" s="7">
-        <v>13206</v>
+        <v>5228</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
+        <v>16</v>
+      </c>
+      <c r="I18" s="7">
+        <v>11094</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="7">
         <v>24</v>
       </c>
-      <c r="I18" s="7">
-        <v>16834</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M18" s="7">
+      <c r="N18" s="7">
+        <v>16322</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="N18" s="7">
-        <v>30040</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2673,49 +2666,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>182</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>122907</v>
+        <v>3311</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>158</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>105793</v>
+        <v>527</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
-        <v>340</v>
+        <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>228700</v>
+        <v>3838</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,49 +2717,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>209</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>138308</v>
+        <v>593</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="H20" s="7">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>136907</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="M20" s="7">
-        <v>412</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>275214</v>
+        <v>593</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,102 +2768,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>419</v>
+        <v>212</v>
       </c>
       <c r="D21" s="7">
-        <v>279521</v>
+        <v>141515</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I21" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>813</v>
+        <v>403</v>
       </c>
       <c r="N21" s="7">
-        <v>545124</v>
+        <v>269063</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>162</v>
       </c>
       <c r="D22" s="7">
-        <v>1260</v>
+        <v>106738</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>154</v>
       </c>
       <c r="I22" s="7">
-        <v>793</v>
+        <v>104845</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="M22" s="7">
-        <v>3</v>
+        <v>316</v>
       </c>
       <c r="N22" s="7">
-        <v>2053</v>
+        <v>211583</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,49 +2872,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="D23" s="7">
-        <v>5798</v>
+        <v>84224</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="H23" s="7">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="I23" s="7">
-        <v>5802</v>
+        <v>74331</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="M23" s="7">
-        <v>18</v>
+        <v>235</v>
       </c>
       <c r="N23" s="7">
-        <v>11600</v>
+        <v>158555</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,49 +2923,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D24" s="7">
-        <v>15185</v>
+        <v>9957</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="H24" s="7">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="I24" s="7">
-        <v>19946</v>
+        <v>8852</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="M24" s="7">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="N24" s="7">
-        <v>35131</v>
+        <v>18809</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,49 +2974,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>218</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>146669</v>
+        <v>2486</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="H25" s="7">
-        <v>199</v>
+        <v>8</v>
       </c>
       <c r="I25" s="7">
-        <v>133716</v>
+        <v>5276</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="M25" s="7">
-        <v>417</v>
+        <v>12</v>
       </c>
       <c r="N25" s="7">
-        <v>280385</v>
+        <v>7762</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,49 +3025,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>267</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>176676</v>
+        <v>667</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="H26" s="7">
-        <v>239</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>161388</v>
+        <v>793</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="M26" s="7">
-        <v>506</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>338063</v>
+        <v>1460</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,55 +3076,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>307</v>
+      </c>
+      <c r="D27" s="7">
+        <v>204072</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
+        <v>286</v>
+      </c>
+      <c r="I27" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M27" s="7">
+        <v>593</v>
+      </c>
+      <c r="N27" s="7">
+        <v>398169</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>267</v>
+      </c>
+      <c r="D28" s="7">
+        <v>176676</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="7">
+        <v>239</v>
+      </c>
+      <c r="I28" s="7">
+        <v>161388</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M28" s="7">
+        <v>506</v>
+      </c>
+      <c r="N28" s="7">
+        <v>338063</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>218</v>
+      </c>
+      <c r="D29" s="7">
+        <v>146669</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" s="7">
+        <v>199</v>
+      </c>
+      <c r="I29" s="7">
+        <v>133716</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M29" s="7">
+        <v>417</v>
+      </c>
+      <c r="N29" s="7">
+        <v>280385</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>23</v>
+      </c>
+      <c r="D30" s="7">
+        <v>15185</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" s="7">
+        <v>29</v>
+      </c>
+      <c r="I30" s="7">
+        <v>19946</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M30" s="7">
+        <v>52</v>
+      </c>
+      <c r="N30" s="7">
+        <v>35131</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>9</v>
+      </c>
+      <c r="D31" s="7">
+        <v>5798</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H31" s="7">
+        <v>9</v>
+      </c>
+      <c r="I31" s="7">
+        <v>5802</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M31" s="7">
+        <v>18</v>
+      </c>
+      <c r="N31" s="7">
+        <v>11600</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1260</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>793</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M32" s="7">
+        <v>3</v>
+      </c>
+      <c r="N32" s="7">
+        <v>2053</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>519</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>345587</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>477</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>321645</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M33" s="7">
         <v>996</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>667232</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>57</v>
+      <c r="O33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3144,8 +3451,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1E9DF6-7368-484B-B1B8-DD5C4790F56C}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460BC44D-29C4-4D7F-9EE4-BD44FAF6A04B}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3161,7 +3468,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3536,47 +3843,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,49 +3886,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1327</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>695</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2022</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3636,49 +3931,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
-      </c>
-      <c r="D12" s="7">
-        <v>3133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>6</v>
-      </c>
-      <c r="I12" s="7">
-        <v>4282</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>10</v>
-      </c>
-      <c r="N12" s="7">
-        <v>7416</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3687,49 +3976,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>49</v>
-      </c>
-      <c r="D13" s="7">
-        <v>35517</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>55</v>
-      </c>
-      <c r="I13" s="7">
-        <v>39452</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>104</v>
-      </c>
-      <c r="N13" s="7">
-        <v>74968</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,49 +4021,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>37</v>
-      </c>
-      <c r="D14" s="7">
-        <v>26197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>39</v>
-      </c>
-      <c r="I14" s="7">
-        <v>27540</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>76</v>
-      </c>
-      <c r="N14" s="7">
-        <v>53738</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,102 +4066,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>92</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>101</v>
-      </c>
-      <c r="I15" s="7">
-        <v>71969</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>193</v>
-      </c>
-      <c r="N15" s="7">
-        <v>138143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="D16" s="7">
-        <v>2559</v>
+        <v>62661</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>60195</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="M16" s="7">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="N16" s="7">
-        <v>2559</v>
+        <v>122856</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>180</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,49 +4164,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="D17" s="7">
-        <v>5429</v>
+        <v>83357</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="I17" s="7">
-        <v>3649</v>
+        <v>84174</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="M17" s="7">
-        <v>13</v>
+        <v>236</v>
       </c>
       <c r="N17" s="7">
-        <v>9078</v>
+        <v>167531</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,49 +4215,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D18" s="7">
-        <v>15537</v>
+        <v>8696</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="H18" s="7">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I18" s="7">
-        <v>14993</v>
+        <v>9772</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="M18" s="7">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="N18" s="7">
-        <v>30531</v>
+        <v>18468</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,49 +4266,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>134439</v>
+        <v>1327</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
-        <v>208</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>148091</v>
+        <v>1373</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="M19" s="7">
-        <v>404</v>
+        <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>282531</v>
+        <v>2700</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>201</v>
+        <v>58</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,49 +4317,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>161</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>107701</v>
+        <v>634</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>204</v>
+        <v>49</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H20" s="7">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>83943</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>206</v>
+        <v>49</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
       <c r="M20" s="7">
-        <v>283</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>191644</v>
+        <v>634</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>210</v>
+        <v>49</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,102 +4368,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>391</v>
+        <v>225</v>
       </c>
       <c r="D21" s="7">
-        <v>265666</v>
+        <v>156674</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>357</v>
+        <v>221</v>
       </c>
       <c r="I21" s="7">
-        <v>250676</v>
+        <v>155514</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>748</v>
+        <v>446</v>
       </c>
       <c r="N21" s="7">
-        <v>516342</v>
+        <v>312189</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="D22" s="7">
-        <v>2559</v>
+        <v>71237</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>51288</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="M22" s="7">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="N22" s="7">
-        <v>2559</v>
+        <v>122525</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,49 +4472,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="D23" s="7">
-        <v>6756</v>
+        <v>86599</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>31</v>
+        <v>188</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="H23" s="7">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="I23" s="7">
-        <v>4343</v>
+        <v>103369</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="M23" s="7">
-        <v>16</v>
+        <v>272</v>
       </c>
       <c r="N23" s="7">
-        <v>11099</v>
+        <v>189968</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,49 +4523,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D24" s="7">
-        <v>18671</v>
+        <v>9975</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="H24" s="7">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I24" s="7">
-        <v>19275</v>
+        <v>9503</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="M24" s="7">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="N24" s="7">
-        <v>37946</v>
+        <v>19478</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,49 +4574,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>245</v>
+        <v>8</v>
       </c>
       <c r="D25" s="7">
-        <v>169956</v>
+        <v>5429</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>235</v>
+        <v>164</v>
       </c>
       <c r="H25" s="7">
-        <v>263</v>
+        <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>187543</v>
+        <v>2970</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="M25" s="7">
-        <v>508</v>
+        <v>12</v>
       </c>
       <c r="N25" s="7">
-        <v>357499</v>
+        <v>8399</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,49 +4625,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>198</v>
+        <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>133898</v>
+        <v>1925</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>244</v>
+        <v>130</v>
       </c>
       <c r="H26" s="7">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>111483</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>245</v>
+        <v>49</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>246</v>
+        <v>56</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>247</v>
+        <v>132</v>
       </c>
       <c r="M26" s="7">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="N26" s="7">
-        <v>245381</v>
+        <v>1925</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,55 +4676,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>258</v>
+      </c>
+      <c r="D27" s="7">
+        <v>175166</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
+        <v>237</v>
+      </c>
+      <c r="I27" s="7">
+        <v>167130</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M27" s="7">
+        <v>495</v>
+      </c>
+      <c r="N27" s="7">
+        <v>342296</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>198</v>
+      </c>
+      <c r="D28" s="7">
+        <v>133898</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H28" s="7">
+        <v>161</v>
+      </c>
+      <c r="I28" s="7">
+        <v>111483</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M28" s="7">
+        <v>359</v>
+      </c>
+      <c r="N28" s="7">
+        <v>245381</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>245</v>
+      </c>
+      <c r="D29" s="7">
+        <v>169956</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H29" s="7">
+        <v>263</v>
+      </c>
+      <c r="I29" s="7">
+        <v>187543</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M29" s="7">
+        <v>508</v>
+      </c>
+      <c r="N29" s="7">
+        <v>357499</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>26</v>
+      </c>
+      <c r="D30" s="7">
+        <v>18671</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H30" s="7">
+        <v>28</v>
+      </c>
+      <c r="I30" s="7">
+        <v>19275</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M30" s="7">
+        <v>54</v>
+      </c>
+      <c r="N30" s="7">
+        <v>37946</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>10</v>
+      </c>
+      <c r="D31" s="7">
+        <v>6756</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H31" s="7">
+        <v>6</v>
+      </c>
+      <c r="I31" s="7">
+        <v>4343</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M31" s="7">
+        <v>16</v>
+      </c>
+      <c r="N31" s="7">
+        <v>11099</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>4</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2559</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M32" s="7">
+        <v>4</v>
+      </c>
+      <c r="N32" s="7">
+        <v>2559</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>483</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>331840</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>458</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>322645</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M33" s="7">
         <v>941</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>654485</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>57</v>
+      <c r="O33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4466,8 +5051,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657CF989-066F-4D06-BF01-4E69BF0E3021}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705FBC24-52F2-4BF0-9143-FCAEE82AB61E}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4483,7 +5068,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4858,47 +5443,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>252</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1030</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>253</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>254</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1030</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>256</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,49 +5486,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
-      </c>
-      <c r="D11" s="7">
-        <v>2397</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>257</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2397</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>262</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,49 +5531,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>9</v>
-      </c>
-      <c r="D12" s="7">
-        <v>6160</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>7</v>
-      </c>
-      <c r="I12" s="7">
-        <v>5705</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>266</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>16</v>
-      </c>
-      <c r="N12" s="7">
-        <v>11866</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>268</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>269</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,49 +5576,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>37</v>
-      </c>
-      <c r="D13" s="7">
-        <v>25391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>272</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>62</v>
-      </c>
-      <c r="I13" s="7">
-        <v>40155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>274</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>275</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>99</v>
-      </c>
-      <c r="N13" s="7">
-        <v>65547</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5060,49 +5621,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>66</v>
-      </c>
-      <c r="D14" s="7">
-        <v>45783</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>68</v>
-      </c>
-      <c r="I14" s="7">
-        <v>44622</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>285</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>134</v>
-      </c>
-      <c r="N14" s="7">
-        <v>90405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,102 +5666,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>115</v>
-      </c>
-      <c r="D15" s="7">
-        <v>79732</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>138</v>
-      </c>
-      <c r="I15" s="7">
-        <v>91513</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>253</v>
-      </c>
-      <c r="N15" s="7">
-        <v>171245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="D16" s="7">
-        <v>690</v>
+        <v>112655</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>98</v>
+        <v>255</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>256</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>147</v>
       </c>
       <c r="I16" s="7">
-        <v>2026</v>
+        <v>101797</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="M16" s="7">
-        <v>4</v>
+        <v>304</v>
       </c>
       <c r="N16" s="7">
-        <v>2716</v>
+        <v>214452</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>178</v>
+        <v>261</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>179</v>
+        <v>262</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,49 +5764,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="D17" s="7">
-        <v>3461</v>
+        <v>61362</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>184</v>
+        <v>266</v>
       </c>
       <c r="H17" s="7">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="I17" s="7">
-        <v>5651</v>
+        <v>71787</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="M17" s="7">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="N17" s="7">
-        <v>9111</v>
+        <v>133149</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>186</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5266,49 +5815,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" s="7">
-        <v>9626</v>
+        <v>10209</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="H18" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I18" s="7">
-        <v>10616</v>
+        <v>8727</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>303</v>
+        <v>175</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="M18" s="7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N18" s="7">
-        <v>20242</v>
+        <v>18937</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>188</v>
+        <v>278</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,49 +5866,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>139</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>101942</v>
+        <v>2397</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>308</v>
+        <v>211</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="H19" s="7">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>109034</v>
+        <v>615</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>310</v>
+        <v>90</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>311</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="M19" s="7">
-        <v>291</v>
+        <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>210976</v>
+        <v>3012</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>314</v>
+        <v>213</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,49 +5917,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>224</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>165910</v>
+        <v>690</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>316</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>317</v>
+        <v>49</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="H20" s="7">
-        <v>194</v>
+        <v>4</v>
       </c>
       <c r="I20" s="7">
-        <v>137932</v>
+        <v>3056</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>319</v>
+        <v>98</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>320</v>
+        <v>54</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="M20" s="7">
-        <v>418</v>
+        <v>5</v>
       </c>
       <c r="N20" s="7">
-        <v>303842</v>
+        <v>3746</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>322</v>
+        <v>57</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>323</v>
+        <v>286</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>324</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,102 +5968,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>381</v>
+        <v>261</v>
       </c>
       <c r="D21" s="7">
-        <v>281629</v>
+        <v>187313</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>372</v>
+        <v>267</v>
       </c>
       <c r="I21" s="7">
-        <v>265259</v>
+        <v>185983</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>753</v>
+        <v>528</v>
       </c>
       <c r="N21" s="7">
-        <v>546888</v>
+        <v>373296</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="D22" s="7">
-        <v>690</v>
+        <v>99039</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>174</v>
+        <v>290</v>
       </c>
       <c r="H22" s="7">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="I22" s="7">
-        <v>3056</v>
+        <v>80757</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>23</v>
+        <v>291</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="M22" s="7">
-        <v>5</v>
+        <v>248</v>
       </c>
       <c r="N22" s="7">
-        <v>3746</v>
+        <v>179796</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>183</v>
+        <v>294</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,49 +6072,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="D23" s="7">
-        <v>5858</v>
+        <v>65972</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="H23" s="7">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="I23" s="7">
-        <v>5651</v>
+        <v>77402</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="M23" s="7">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="N23" s="7">
-        <v>11508</v>
+        <v>143374</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,49 +6123,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D24" s="7">
-        <v>15786</v>
+        <v>5577</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="H24" s="7">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I24" s="7">
-        <v>16322</v>
+        <v>7594</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>342</v>
+        <v>206</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>343</v>
+        <v>99</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="M24" s="7">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="N24" s="7">
-        <v>32108</v>
+        <v>13171</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,49 +6174,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>176</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>127333</v>
+        <v>3461</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>83</v>
+        <v>313</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="H25" s="7">
-        <v>214</v>
+        <v>7</v>
       </c>
       <c r="I25" s="7">
-        <v>149189</v>
+        <v>5036</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="M25" s="7">
-        <v>390</v>
+        <v>11</v>
       </c>
       <c r="N25" s="7">
-        <v>276522</v>
+        <v>8496</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,49 +6225,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>211694</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>202</v>
+        <v>49</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>356</v>
+        <v>132</v>
       </c>
       <c r="H26" s="7">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>182554</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>357</v>
+        <v>49</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>358</v>
+        <v>56</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>196</v>
+        <v>322</v>
       </c>
       <c r="M26" s="7">
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>394248</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>359</v>
+        <v>49</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>360</v>
+        <v>56</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>361</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,55 +6276,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>235</v>
+      </c>
+      <c r="D27" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
+        <v>243</v>
+      </c>
+      <c r="I27" s="7">
+        <v>170789</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M27" s="7">
+        <v>478</v>
+      </c>
+      <c r="N27" s="7">
+        <v>344837</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>290</v>
+      </c>
+      <c r="D28" s="7">
+        <v>211694</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H28" s="7">
+        <v>262</v>
+      </c>
+      <c r="I28" s="7">
+        <v>182554</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="M28" s="7">
+        <v>552</v>
+      </c>
+      <c r="N28" s="7">
+        <v>394248</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>176</v>
+      </c>
+      <c r="D29" s="7">
+        <v>127333</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H29" s="7">
+        <v>214</v>
+      </c>
+      <c r="I29" s="7">
+        <v>149189</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="M29" s="7">
+        <v>390</v>
+      </c>
+      <c r="N29" s="7">
+        <v>276522</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>22</v>
+      </c>
+      <c r="D30" s="7">
+        <v>15786</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H30" s="7">
+        <v>22</v>
+      </c>
+      <c r="I30" s="7">
+        <v>16322</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="M30" s="7">
+        <v>44</v>
+      </c>
+      <c r="N30" s="7">
+        <v>32108</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>7</v>
+      </c>
+      <c r="D31" s="7">
+        <v>5858</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H31" s="7">
+        <v>8</v>
+      </c>
+      <c r="I31" s="7">
+        <v>5651</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M31" s="7">
+        <v>15</v>
+      </c>
+      <c r="N31" s="7">
+        <v>11508</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>690</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H32" s="7">
+        <v>4</v>
+      </c>
+      <c r="I32" s="7">
+        <v>3056</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M32" s="7">
+        <v>5</v>
+      </c>
+      <c r="N32" s="7">
+        <v>3746</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>496</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>361361</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>510</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>356772</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M33" s="7">
         <v>1006</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>718133</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>57</v>
+      <c r="O33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5788,8 +6651,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54272A54-8958-4CE6-B24D-462C84224B76}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE65ED5-349F-417D-A514-003CE26D7F58}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5805,7 +6668,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6180,47 +7043,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>363</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>364</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>365</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,49 +7086,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
-      </c>
-      <c r="D11" s="7">
-        <v>2330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>366</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>367</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>368</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>369</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>5</v>
-      </c>
-      <c r="N11" s="7">
-        <v>3754</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>340</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>370</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>371</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,49 +7131,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
-      </c>
-      <c r="D12" s="7">
-        <v>3471</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>372</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>373</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>374</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>605</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>375</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>5</v>
-      </c>
-      <c r="N12" s="7">
-        <v>4076</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>376</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>377</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,49 +7176,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>21</v>
-      </c>
-      <c r="D13" s="7">
-        <v>17021</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>378</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>379</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>380</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>31</v>
-      </c>
-      <c r="I13" s="7">
-        <v>22933</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>381</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>52</v>
-      </c>
-      <c r="N13" s="7">
-        <v>39954</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>384</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>385</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6382,49 +7221,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>52</v>
-      </c>
-      <c r="D14" s="7">
-        <v>44775</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>386</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>387</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>388</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>48</v>
-      </c>
-      <c r="I14" s="7">
-        <v>37491</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>389</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>390</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>391</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>100</v>
-      </c>
-      <c r="N14" s="7">
-        <v>82266</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>392</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>393</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>394</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6433,102 +7266,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>80</v>
-      </c>
-      <c r="D15" s="7">
-        <v>67597</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>82</v>
-      </c>
-      <c r="I15" s="7">
-        <v>62453</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>162</v>
-      </c>
-      <c r="N15" s="7">
-        <v>130050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="D16" s="7">
-        <v>1669</v>
+        <v>107699</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>395</v>
+        <v>359</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>360</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>396</v>
+        <v>361</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="I16" s="7">
-        <v>2364</v>
+        <v>78017</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>397</v>
+        <v>362</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>398</v>
+        <v>364</v>
       </c>
       <c r="M16" s="7">
-        <v>5</v>
+        <v>225</v>
       </c>
       <c r="N16" s="7">
-        <v>4033</v>
+        <v>185715</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>400</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6537,49 +7364,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D17" s="7">
-        <v>3768</v>
+        <v>41613</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>401</v>
+        <v>368</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>402</v>
+        <v>369</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="I17" s="7">
-        <v>4688</v>
+        <v>48368</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>60</v>
+        <v>371</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>178</v>
+        <v>372</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>373</v>
       </c>
       <c r="M17" s="7">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="N17" s="7">
-        <v>8455</v>
+        <v>89981</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>374</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>406</v>
+        <v>375</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6588,49 +7415,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D18" s="7">
-        <v>20869</v>
+        <v>8603</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>263</v>
+        <v>378</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="H18" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I18" s="7">
-        <v>7745</v>
+        <v>2604</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>409</v>
+        <v>95</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>149</v>
+        <v>380</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="M18" s="7">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="N18" s="7">
-        <v>28613</v>
+        <v>11207</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6639,49 +7466,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>129</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>104293</v>
+        <v>4055</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="H19" s="7">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>100168</v>
+        <v>3001</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>418</v>
+        <v>212</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="M19" s="7">
-        <v>272</v>
+        <v>10</v>
       </c>
       <c r="N19" s="7">
-        <v>204461</v>
+        <v>7056</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>421</v>
+        <v>390</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>422</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6690,49 +7517,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>220540</v>
+        <v>1669</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>158</v>
+        <v>392</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>423</v>
+        <v>49</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>424</v>
+        <v>393</v>
       </c>
       <c r="H20" s="7">
-        <v>233</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>184467</v>
+        <v>1816</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>425</v>
+        <v>394</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>426</v>
+        <v>49</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="M20" s="7">
-        <v>483</v>
+        <v>4</v>
       </c>
       <c r="N20" s="7">
-        <v>405006</v>
+        <v>3485</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>430</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6741,102 +7568,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>409</v>
+        <v>195</v>
       </c>
       <c r="D21" s="7">
-        <v>351138</v>
+        <v>163639</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>395</v>
+        <v>177</v>
       </c>
       <c r="I21" s="7">
-        <v>299431</v>
+        <v>133806</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>804</v>
+        <v>372</v>
       </c>
       <c r="N21" s="7">
-        <v>650569</v>
+        <v>297444</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="D22" s="7">
-        <v>1669</v>
+        <v>157616</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>400</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>219</v>
+        <v>401</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
+        <v>181</v>
       </c>
       <c r="I22" s="7">
-        <v>2364</v>
+        <v>143941</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="M22" s="7">
+        <v>358</v>
+      </c>
+      <c r="N22" s="7">
+        <v>301557</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="M22" s="7">
-        <v>5</v>
-      </c>
-      <c r="N22" s="7">
-        <v>4033</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>325</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>293</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6845,49 +7672,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D23" s="7">
-        <v>6098</v>
+        <v>79701</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>145</v>
+        <v>408</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="H23" s="7">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="I23" s="7">
-        <v>6111</v>
+        <v>74734</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="M23" s="7">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="N23" s="7">
-        <v>12209</v>
+        <v>154435</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>102</v>
+        <v>415</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6896,49 +7723,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D24" s="7">
-        <v>24339</v>
+        <v>15736</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="H24" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I24" s="7">
-        <v>8350</v>
+        <v>5746</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>365</v>
+        <v>253</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>119</v>
+        <v>421</v>
       </c>
       <c r="M24" s="7">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="N24" s="7">
-        <v>32689</v>
+        <v>21482</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>444</v>
+        <v>206</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>22</v>
+        <v>422</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6947,49 +7774,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>121314</v>
+        <v>2043</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>447</v>
+        <v>58</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="H25" s="7">
-        <v>174</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>123101</v>
+        <v>3110</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>449</v>
+        <v>394</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>450</v>
+        <v>140</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="M25" s="7">
-        <v>324</v>
+        <v>6</v>
       </c>
       <c r="N25" s="7">
-        <v>244415</v>
+        <v>5153</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>453</v>
+        <v>251</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6998,49 +7825,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>265314</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>455</v>
+        <v>49</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>456</v>
+        <v>56</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>457</v>
+        <v>429</v>
       </c>
       <c r="H26" s="7">
-        <v>281</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>221958</v>
+        <v>548</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>459</v>
+        <v>49</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>460</v>
+        <v>396</v>
       </c>
       <c r="M26" s="7">
-        <v>583</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>487272</v>
+        <v>548</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>461</v>
+        <v>431</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>462</v>
+        <v>49</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>463</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7049,55 +7876,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>294</v>
+      </c>
+      <c r="D27" s="7">
+        <v>255096</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
+        <v>300</v>
+      </c>
+      <c r="I27" s="7">
+        <v>228079</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M27" s="7">
+        <v>594</v>
+      </c>
+      <c r="N27" s="7">
+        <v>483175</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>302</v>
+      </c>
+      <c r="D28" s="7">
+        <v>265314</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H28" s="7">
+        <v>281</v>
+      </c>
+      <c r="I28" s="7">
+        <v>221958</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="M28" s="7">
+        <v>583</v>
+      </c>
+      <c r="N28" s="7">
+        <v>487272</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>150</v>
+      </c>
+      <c r="D29" s="7">
+        <v>121314</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H29" s="7">
+        <v>174</v>
+      </c>
+      <c r="I29" s="7">
+        <v>123101</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="M29" s="7">
+        <v>324</v>
+      </c>
+      <c r="N29" s="7">
+        <v>244415</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>26</v>
+      </c>
+      <c r="D30" s="7">
+        <v>24339</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="H30" s="7">
+        <v>12</v>
+      </c>
+      <c r="I30" s="7">
+        <v>8350</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="M30" s="7">
+        <v>38</v>
+      </c>
+      <c r="N30" s="7">
+        <v>32689</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>9</v>
+      </c>
+      <c r="D31" s="7">
+        <v>6098</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H31" s="7">
+        <v>7</v>
+      </c>
+      <c r="I31" s="7">
+        <v>6111</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="M31" s="7">
+        <v>16</v>
+      </c>
+      <c r="N31" s="7">
+        <v>12209</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1669</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H32" s="7">
+        <v>3</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2364</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="M32" s="7">
+        <v>5</v>
+      </c>
+      <c r="N32" s="7">
+        <v>4033</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>489</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>418734</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>477</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>361884</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M33" s="7">
         <v>966</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>780619</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>57</v>
+      <c r="O33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07A01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A01-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{800AA7A8-F958-4EDD-8D03-45DE3F360017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1683D5A-77EE-484D-81C5-FE69F69DF43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5562E1AF-1F9A-452A-A15D-FB4354E0DC4A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8825C005-D972-477C-AF6F-CA0CB4E3B072}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="473">
   <si>
     <t>Menores según frecuencia de sentirse bien y en forma en 2007 (Tasa respuesta: 47,34%)</t>
   </si>
@@ -98,1348 +98,1366 @@
     <t>49,42%</t>
   </si>
   <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
   </si>
   <si>
     <t>44,33%</t>
   </si>
   <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
   </si>
   <si>
     <t>47,01%</t>
   </si>
   <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
   </si>
   <si>
     <t>44,13%</t>
   </si>
   <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
   </si>
   <si>
     <t>46,56%</t>
   </si>
   <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
   </si>
   <si>
     <t>45,28%</t>
   </si>
   <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
   </si>
   <si>
     <t>3,69%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
   </si>
   <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
   </si>
   <si>
     <t>6,07%</t>
   </si>
   <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
   </si>
   <si>
     <t>2,34%</t>
   </si>
   <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse bien y en forma en 2012 (Tasa respuesta: 44,83%)</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse bien y en forma en 2016 (Tasa respuesta: 47,32%)</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse bien y en forma en 2023 (Tasa respuesta: 50,31%)</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
   </si>
   <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse bien y en forma en 2012 (Tasa respuesta: 44,83%)</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse bien y en forma en 2015 (Tasa respuesta: 47,32%)</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
   </si>
   <si>
     <t>1,16%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse bien y en forma en 2023 (Tasa respuesta: 50,31%)</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
   </si>
 </sst>
 </file>
@@ -1851,7 +1869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF91674-4182-47DD-A488-277B2214F714}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BA9842-49FB-46F8-9F28-9D483AB8CD3D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3267,13 +3285,13 @@
         <v>35131</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,13 +3306,13 @@
         <v>5798</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H31" s="7">
         <v>9</v>
@@ -3303,13 +3321,13 @@
         <v>5802</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M31" s="7">
         <v>18</v>
@@ -3318,13 +3336,13 @@
         <v>11600</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,13 +3357,13 @@
         <v>1260</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -3354,13 +3372,13 @@
         <v>793</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -3369,13 +3387,13 @@
         <v>2053</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,7 +3449,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3451,7 +3469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460BC44D-29C4-4D7F-9EE4-BD44FAF6A04B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1626EDE5-FEE6-49AE-831A-DED6F50FF789}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3468,7 +3486,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4119,13 +4137,13 @@
         <v>62661</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H16" s="7">
         <v>87</v>
@@ -4134,13 +4152,13 @@
         <v>60195</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M16" s="7">
         <v>180</v>
@@ -4149,13 +4167,13 @@
         <v>122856</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4170,13 +4188,13 @@
         <v>83357</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H17" s="7">
         <v>118</v>
@@ -4185,13 +4203,13 @@
         <v>84174</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M17" s="7">
         <v>236</v>
@@ -4200,13 +4218,13 @@
         <v>167531</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4221,13 +4239,13 @@
         <v>8696</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -4236,13 +4254,13 @@
         <v>9772</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M18" s="7">
         <v>25</v>
@@ -4251,13 +4269,13 @@
         <v>18468</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4272,13 +4290,13 @@
         <v>1327</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4287,13 +4305,13 @@
         <v>1373</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -4302,13 +4320,13 @@
         <v>2700</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>58</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,13 +4341,13 @@
         <v>634</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4344,7 +4362,7 @@
         <v>56</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4353,13 +4371,13 @@
         <v>634</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>49</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,13 +4445,13 @@
         <v>71237</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>178</v>
+        <v>34</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H22" s="7">
         <v>74</v>
@@ -4442,13 +4460,13 @@
         <v>51288</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M22" s="7">
         <v>179</v>
@@ -4457,13 +4475,13 @@
         <v>122525</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,13 +4496,13 @@
         <v>86599</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H23" s="7">
         <v>145</v>
@@ -4493,13 +4511,13 @@
         <v>103369</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M23" s="7">
         <v>272</v>
@@ -4508,13 +4526,13 @@
         <v>189968</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,13 +4547,13 @@
         <v>9975</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -4544,13 +4562,13 @@
         <v>9503</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M24" s="7">
         <v>29</v>
@@ -4559,13 +4577,13 @@
         <v>19478</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4580,13 +4598,13 @@
         <v>5429</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -4595,13 +4613,13 @@
         <v>2970</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -4610,13 +4628,13 @@
         <v>8399</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>208</v>
+        <v>93</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,13 +4649,13 @@
         <v>1925</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>210</v>
+        <v>139</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4652,7 +4670,7 @@
         <v>56</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>132</v>
+        <v>217</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -4661,13 +4679,13 @@
         <v>1925</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,13 +4753,13 @@
         <v>133898</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="H28" s="7">
         <v>161</v>
@@ -4750,13 +4768,13 @@
         <v>111483</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M28" s="7">
         <v>359</v>
@@ -4765,13 +4783,13 @@
         <v>245381</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4804,13 @@
         <v>169956</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H29" s="7">
         <v>263</v>
@@ -4801,13 +4819,13 @@
         <v>187543</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M29" s="7">
         <v>508</v>
@@ -4816,13 +4834,13 @@
         <v>357499</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4855,13 @@
         <v>18671</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="H30" s="7">
         <v>28</v>
@@ -4852,13 +4870,13 @@
         <v>19275</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="M30" s="7">
         <v>54</v>
@@ -4867,13 +4885,13 @@
         <v>37946</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,13 +4906,13 @@
         <v>6756</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -4903,13 +4921,13 @@
         <v>4343</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="M31" s="7">
         <v>16</v>
@@ -4918,13 +4936,13 @@
         <v>11099</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,13 +4957,13 @@
         <v>2559</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4969,13 +4987,13 @@
         <v>2559</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5031,7 +5049,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -5051,7 +5069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705FBC24-52F2-4BF0-9143-FCAEE82AB61E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158D6FA4-ED3F-4212-BA1E-ECBA96C50517}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5068,7 +5086,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5719,13 +5737,13 @@
         <v>112655</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="H16" s="7">
         <v>147</v>
@@ -5734,13 +5752,13 @@
         <v>101797</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="M16" s="7">
         <v>304</v>
@@ -5749,13 +5767,13 @@
         <v>214452</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,13 +5788,13 @@
         <v>61362</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="H17" s="7">
         <v>104</v>
@@ -5785,13 +5803,13 @@
         <v>71787</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="M17" s="7">
         <v>190</v>
@@ -5800,13 +5818,13 @@
         <v>133149</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,13 +5839,13 @@
         <v>10209</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>274</v>
+        <v>201</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -5836,13 +5854,13 @@
         <v>8727</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>175</v>
+        <v>283</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="M18" s="7">
         <v>25</v>
@@ -5851,13 +5869,13 @@
         <v>18937</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,13 +5890,13 @@
         <v>2397</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>211</v>
+        <v>289</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5893,7 +5911,7 @@
         <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -5902,13 +5920,13 @@
         <v>3012</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>132</v>
+        <v>217</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5929,7 +5947,7 @@
         <v>49</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -5941,10 +5959,10 @@
         <v>98</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>54</v>
+        <v>294</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -5956,10 +5974,10 @@
         <v>57</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>286</v>
+        <v>90</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6027,13 +6045,13 @@
         <v>99039</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="H22" s="7">
         <v>115</v>
@@ -6042,13 +6060,13 @@
         <v>80757</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="M22" s="7">
         <v>248</v>
@@ -6057,13 +6075,13 @@
         <v>179796</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6078,13 +6096,13 @@
         <v>65972</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="H23" s="7">
         <v>110</v>
@@ -6093,13 +6111,13 @@
         <v>77402</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="M23" s="7">
         <v>200</v>
@@ -6108,13 +6126,13 @@
         <v>143374</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6129,13 +6147,13 @@
         <v>5577</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>306</v>
+        <v>91</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
@@ -6144,13 +6162,13 @@
         <v>7594</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>99</v>
+        <v>317</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -6159,13 +6177,13 @@
         <v>13171</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6180,13 +6198,13 @@
         <v>3461</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -6195,13 +6213,13 @@
         <v>5036</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -6210,13 +6228,13 @@
         <v>8496</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6237,7 +6255,7 @@
         <v>56</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>132</v>
+        <v>217</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6252,7 +6270,7 @@
         <v>56</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6267,7 +6285,7 @@
         <v>56</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6335,13 +6353,13 @@
         <v>211694</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="H28" s="7">
         <v>262</v>
@@ -6350,13 +6368,13 @@
         <v>182554</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M28" s="7">
         <v>552</v>
@@ -6365,13 +6383,13 @@
         <v>394248</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6386,13 +6404,13 @@
         <v>127333</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="H29" s="7">
         <v>214</v>
@@ -6401,13 +6419,13 @@
         <v>149189</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="M29" s="7">
         <v>390</v>
@@ -6416,13 +6434,13 @@
         <v>276522</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6437,13 +6455,13 @@
         <v>15786</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="H30" s="7">
         <v>22</v>
@@ -6452,13 +6470,13 @@
         <v>16322</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>343</v>
+        <v>53</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="M30" s="7">
         <v>44</v>
@@ -6467,13 +6485,13 @@
         <v>32108</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>346</v>
+        <v>87</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6488,13 +6506,13 @@
         <v>5858</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>350</v>
+        <v>203</v>
       </c>
       <c r="H31" s="7">
         <v>8</v>
@@ -6503,13 +6521,13 @@
         <v>5651</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>53</v>
+        <v>361</v>
       </c>
       <c r="M31" s="7">
         <v>15</v>
@@ -6518,13 +6536,13 @@
         <v>11508</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>282</v>
+        <v>362</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>171</v>
+        <v>260</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6539,13 +6557,13 @@
         <v>690</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>354</v>
+        <v>256</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -6554,13 +6572,13 @@
         <v>3056</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>355</v>
+        <v>58</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>99</v>
+        <v>364</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -6569,13 +6587,13 @@
         <v>3746</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>354</v>
+        <v>219</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6631,7 +6649,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -6651,7 +6669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE65ED5-349F-417D-A514-003CE26D7F58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E39DC4-6688-46EC-9440-4AE117901C44}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6668,7 +6686,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7319,13 +7337,13 @@
         <v>107699</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="H16" s="7">
         <v>100</v>
@@ -7334,13 +7352,13 @@
         <v>78017</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="M16" s="7">
         <v>225</v>
@@ -7349,13 +7367,13 @@
         <v>185715</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7370,13 +7388,13 @@
         <v>41613</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="H17" s="7">
         <v>67</v>
@@ -7385,13 +7403,13 @@
         <v>48368</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="M17" s="7">
         <v>118</v>
@@ -7400,13 +7418,13 @@
         <v>89981</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7421,13 +7439,13 @@
         <v>8603</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -7439,10 +7457,10 @@
         <v>95</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="M18" s="7">
         <v>15</v>
@@ -7451,13 +7469,13 @@
         <v>11207</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7472,13 +7490,13 @@
         <v>4055</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -7487,13 +7505,13 @@
         <v>3001</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>388</v>
+        <v>126</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -7502,13 +7520,13 @@
         <v>7056</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>389</v>
+        <v>296</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7523,13 +7541,13 @@
         <v>1669</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>392</v>
+        <v>96</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>393</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -7538,13 +7556,13 @@
         <v>1816</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -7553,13 +7571,13 @@
         <v>3485</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>397</v>
+        <v>90</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>398</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7627,13 +7645,13 @@
         <v>157616</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="H22" s="7">
         <v>181</v>
@@ -7642,13 +7660,13 @@
         <v>143941</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="M22" s="7">
         <v>358</v>
@@ -7657,13 +7675,13 @@
         <v>301557</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7678,13 +7696,13 @@
         <v>79701</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H23" s="7">
         <v>107</v>
@@ -7693,13 +7711,13 @@
         <v>74734</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M23" s="7">
         <v>206</v>
@@ -7708,13 +7726,13 @@
         <v>154435</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7729,13 +7747,13 @@
         <v>15736</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -7744,13 +7762,13 @@
         <v>5746</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>253</v>
+        <v>139</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M24" s="7">
         <v>23</v>
@@ -7759,13 +7777,13 @@
         <v>21482</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7780,13 +7798,13 @@
         <v>2043</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>424</v>
+        <v>130</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>58</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -7795,13 +7813,13 @@
         <v>3110</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>140</v>
+        <v>427</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -7810,13 +7828,13 @@
         <v>5153</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7837,7 +7855,7 @@
         <v>56</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -7846,13 +7864,13 @@
         <v>548</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>396</v>
+        <v>365</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -7861,13 +7879,13 @@
         <v>548</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>49</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>432</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7935,13 +7953,13 @@
         <v>265314</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>323</v>
+        <v>435</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H28" s="7">
         <v>281</v>
@@ -7950,13 +7968,13 @@
         <v>221958</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M28" s="7">
         <v>583</v>
@@ -7965,13 +7983,13 @@
         <v>487272</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>257</v>
+        <v>442</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7986,13 +8004,13 @@
         <v>121314</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="H29" s="7">
         <v>174</v>
@@ -8001,13 +8019,13 @@
         <v>123101</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="M29" s="7">
         <v>324</v>
@@ -8016,13 +8034,13 @@
         <v>244415</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8037,13 +8055,13 @@
         <v>24339</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>450</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -8052,13 +8070,13 @@
         <v>8350</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>175</v>
+        <v>454</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="M30" s="7">
         <v>38</v>
@@ -8067,13 +8085,13 @@
         <v>32689</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8088,13 +8106,13 @@
         <v>6098</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>349</v>
+        <v>461</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="H31" s="7">
         <v>7</v>
@@ -8103,13 +8121,13 @@
         <v>6111</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>314</v>
+        <v>464</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="M31" s="7">
         <v>16</v>
@@ -8118,13 +8136,13 @@
         <v>12209</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>46</v>
+        <v>467</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>462</v>
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8139,13 +8157,13 @@
         <v>1669</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -8154,13 +8172,13 @@
         <v>2364</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -8169,13 +8187,13 @@
         <v>4033</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>357</v>
+        <v>472</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8231,7 +8249,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1683D5A-77EE-484D-81C5-FE69F69DF43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{523C3A1B-AA70-4787-A8BF-E8A4D9296860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8825C005-D972-477C-AF6F-CA0CB4E3B072}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{8A26737C-67D9-450B-A2CE-38A11C7AA45A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="472">
   <si>
     <t>Menores según frecuencia de sentirse bien y en forma en 2007 (Tasa respuesta: 47,34%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -95,1369 +95,1366 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
     <t>49,42%</t>
   </si>
   <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse bien y en forma en 2012 (Tasa respuesta: 44,83%)</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse bien y en forma en 2016 (Tasa respuesta: 47,32%)</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse bien y en forma en 2023 (Tasa respuesta: 50,31%)</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
   </si>
   <si>
     <t>37,62%</t>
   </si>
   <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
   </si>
   <si>
     <t>6,94%</t>
   </si>
   <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse bien y en forma en 2012 (Tasa respuesta: 44,83%)</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse bien y en forma en 2016 (Tasa respuesta: 47,32%)</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
+    <t>1,63%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse bien y en forma en 2023 (Tasa respuesta: 50,31%)</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
+    <t>3,4%</t>
   </si>
   <si>
     <t>2,76%</t>
   </si>
   <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
   </si>
 </sst>
 </file>
@@ -1869,7 +1866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BA9842-49FB-46F8-9F28-9D483AB8CD3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC458DE-093E-45E7-A6EA-D51DD598E2E1}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2531,10 +2528,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="D16" s="7">
-        <v>69938</v>
+        <v>56542</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2546,10 +2543,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="I16" s="7">
-        <v>56542</v>
+        <v>69938</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -2582,10 +2579,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D17" s="7">
-        <v>62445</v>
+        <v>59385</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -2597,10 +2594,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I17" s="7">
-        <v>59385</v>
+        <v>62445</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -2633,10 +2630,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D18" s="7">
-        <v>5228</v>
+        <v>11094</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -2648,10 +2645,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I18" s="7">
-        <v>11094</v>
+        <v>5228</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -2684,10 +2681,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>3311</v>
+        <v>527</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
@@ -2699,10 +2696,10 @@
         <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>527</v>
+        <v>3311</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>48</v>
@@ -2735,31 +2732,31 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>593</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>55</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>593</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>57</v>
@@ -2774,7 +2771,7 @@
         <v>58</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>59</v>
@@ -2786,25 +2783,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>191</v>
+      </c>
+      <c r="D21" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>212</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>141515</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="7">
-        <v>191</v>
-      </c>
-      <c r="I21" s="7">
-        <v>127548</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -2839,10 +2836,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D22" s="7">
-        <v>106738</v>
+        <v>104845</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>62</v>
@@ -2854,10 +2851,10 @@
         <v>64</v>
       </c>
       <c r="H22" s="7">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="I22" s="7">
-        <v>104845</v>
+        <v>106738</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>65</v>
@@ -2890,10 +2887,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D23" s="7">
-        <v>84224</v>
+        <v>74331</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>71</v>
@@ -2905,10 +2902,10 @@
         <v>73</v>
       </c>
       <c r="H23" s="7">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="I23" s="7">
-        <v>74331</v>
+        <v>84224</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>74</v>
@@ -2941,10 +2938,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D24" s="7">
-        <v>9957</v>
+        <v>8852</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>80</v>
@@ -2956,10 +2953,10 @@
         <v>82</v>
       </c>
       <c r="H24" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I24" s="7">
-        <v>8852</v>
+        <v>9957</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>83</v>
@@ -2992,10 +2989,10 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D25" s="7">
-        <v>2486</v>
+        <v>5276</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>89</v>
@@ -3007,10 +3004,10 @@
         <v>91</v>
       </c>
       <c r="H25" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>5276</v>
+        <v>2486</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>92</v>
@@ -3046,13 +3043,13 @@
         <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>667</v>
+        <v>793</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>98</v>
@@ -3061,13 +3058,13 @@
         <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>793</v>
+        <v>667</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>99</v>
@@ -3082,7 +3079,7 @@
         <v>100</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>101</v>
@@ -3094,25 +3091,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>286</v>
+      </c>
+      <c r="D27" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>307</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>204072</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
-        <v>286</v>
-      </c>
-      <c r="I27" s="7">
-        <v>194097</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -3147,10 +3144,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="D28" s="7">
-        <v>176676</v>
+        <v>161388</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>102</v>
@@ -3162,19 +3159,19 @@
         <v>104</v>
       </c>
       <c r="H28" s="7">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="I28" s="7">
-        <v>161388</v>
+        <v>176676</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>105</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M28" s="7">
         <v>506</v>
@@ -3183,13 +3180,13 @@
         <v>338063</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,34 +3195,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>199</v>
+      </c>
+      <c r="D29" s="7">
+        <v>133716</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" s="7">
         <v>218</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>146669</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H29" s="7">
-        <v>199</v>
-      </c>
-      <c r="I29" s="7">
-        <v>133716</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M29" s="7">
         <v>417</v>
@@ -3234,13 +3231,13 @@
         <v>280385</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,34 +3246,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>29</v>
+      </c>
+      <c r="D30" s="7">
+        <v>19946</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H30" s="7">
         <v>23</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>15185</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H30" s="7">
-        <v>29</v>
-      </c>
-      <c r="I30" s="7">
-        <v>19946</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M30" s="7">
         <v>52</v>
@@ -3285,13 +3282,13 @@
         <v>35131</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,31 +3300,31 @@
         <v>9</v>
       </c>
       <c r="D31" s="7">
-        <v>5798</v>
+        <v>5802</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H31" s="7">
         <v>9</v>
       </c>
       <c r="I31" s="7">
-        <v>5802</v>
+        <v>5798</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M31" s="7">
         <v>18</v>
@@ -3336,13 +3333,13 @@
         <v>11600</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3351,34 +3348,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>793</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32" s="7">
         <v>2</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>1260</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="7" t="s">
+      <c r="J32" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H32" s="7">
-        <v>1</v>
-      </c>
-      <c r="I32" s="7">
-        <v>793</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="K32" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -3387,13 +3384,13 @@
         <v>2053</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,25 +3399,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>477</v>
+      </c>
+      <c r="D33" s="7">
+        <v>321645</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>519</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>345587</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="7">
-        <v>477</v>
-      </c>
-      <c r="I33" s="7">
-        <v>321645</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>60</v>
@@ -3449,7 +3446,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3469,7 +3466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1626EDE5-FEE6-49AE-831A-DED6F50FF789}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B9F2F0-8DC0-447E-A7CD-F547D5395015}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3486,7 +3483,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4131,34 +4128,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>87</v>
+      </c>
+      <c r="D16" s="7">
+        <v>60195</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16" s="7">
         <v>93</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>62661</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="7">
-        <v>87</v>
-      </c>
-      <c r="I16" s="7">
-        <v>60195</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M16" s="7">
         <v>180</v>
@@ -4167,13 +4164,13 @@
         <v>122856</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,31 +4182,31 @@
         <v>118</v>
       </c>
       <c r="D17" s="7">
-        <v>83357</v>
+        <v>84174</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H17" s="7">
         <v>118</v>
       </c>
       <c r="I17" s="7">
-        <v>84174</v>
+        <v>83357</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M17" s="7">
         <v>236</v>
@@ -4218,13 +4215,13 @@
         <v>167531</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4233,34 +4230,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D18" s="7">
+        <v>9772</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18" s="7">
+        <v>11</v>
+      </c>
+      <c r="I18" s="7">
         <v>8696</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="H18" s="7">
-        <v>14</v>
-      </c>
-      <c r="I18" s="7">
-        <v>9772</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M18" s="7">
         <v>25</v>
@@ -4269,13 +4266,13 @@
         <v>18468</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,31 +4284,31 @@
         <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>1327</v>
+        <v>1373</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>1373</v>
+        <v>1327</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -4320,13 +4317,13 @@
         <v>2700</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>58</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,31 +4332,31 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H20" s="7">
         <v>1</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>634</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>49</v>
+        <v>177</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>178</v>
@@ -4371,13 +4368,13 @@
         <v>634</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4386,25 +4383,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>221</v>
+      </c>
+      <c r="D21" s="7">
+        <v>155514</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>225</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>156674</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="7">
-        <v>221</v>
-      </c>
-      <c r="I21" s="7">
-        <v>155514</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -4439,34 +4436,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>74</v>
+      </c>
+      <c r="D22" s="7">
+        <v>51288</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H22" s="7">
         <v>105</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>71237</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="H22" s="7">
-        <v>74</v>
-      </c>
-      <c r="I22" s="7">
-        <v>51288</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M22" s="7">
         <v>179</v>
@@ -4475,13 +4472,13 @@
         <v>122525</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,34 +4487,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>145</v>
+      </c>
+      <c r="D23" s="7">
+        <v>103369</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H23" s="7">
         <v>127</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>86599</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="H23" s="7">
-        <v>145</v>
-      </c>
-      <c r="I23" s="7">
-        <v>103369</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M23" s="7">
         <v>272</v>
@@ -4526,13 +4523,13 @@
         <v>189968</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,34 +4538,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>14</v>
+      </c>
+      <c r="D24" s="7">
+        <v>9503</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H24" s="7">
         <v>15</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>9975</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="H24" s="7">
-        <v>14</v>
-      </c>
-      <c r="I24" s="7">
-        <v>9503</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M24" s="7">
         <v>29</v>
@@ -4577,13 +4574,13 @@
         <v>19478</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4592,34 +4589,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2970</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" s="7">
         <v>8</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>5429</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="H25" s="7">
-        <v>4</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2970</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -4628,13 +4625,13 @@
         <v>8399</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4643,34 +4640,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H26" s="7">
         <v>3</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>1925</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>56</v>
+        <v>213</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -4679,13 +4676,13 @@
         <v>1925</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>218</v>
+        <v>52</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,25 +4691,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>237</v>
+      </c>
+      <c r="D27" s="7">
+        <v>167130</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>258</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>175166</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
-        <v>237</v>
-      </c>
-      <c r="I27" s="7">
-        <v>167130</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -4747,34 +4744,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>161</v>
+      </c>
+      <c r="D28" s="7">
+        <v>111483</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H28" s="7">
         <v>198</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>133898</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="J28" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H28" s="7">
-        <v>161</v>
-      </c>
-      <c r="I28" s="7">
-        <v>111483</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M28" s="7">
         <v>359</v>
@@ -4783,13 +4780,13 @@
         <v>245381</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4798,34 +4795,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>263</v>
+      </c>
+      <c r="D29" s="7">
+        <v>187543</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H29" s="7">
         <v>245</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>169956</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="J29" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H29" s="7">
-        <v>263</v>
-      </c>
-      <c r="I29" s="7">
-        <v>187543</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>234</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="M29" s="7">
         <v>508</v>
@@ -4834,13 +4831,13 @@
         <v>357499</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,34 +4846,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>28</v>
+      </c>
+      <c r="D30" s="7">
+        <v>19275</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H30" s="7">
         <v>26</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>18671</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="J30" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H30" s="7">
-        <v>28</v>
-      </c>
-      <c r="I30" s="7">
-        <v>19275</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M30" s="7">
         <v>54</v>
@@ -4885,13 +4882,13 @@
         <v>37946</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4900,34 +4897,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>6</v>
+      </c>
+      <c r="D31" s="7">
+        <v>4343</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H31" s="7">
         <v>10</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>6756</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="J31" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="H31" s="7">
-        <v>6</v>
-      </c>
-      <c r="I31" s="7">
-        <v>4343</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M31" s="7">
         <v>16</v>
@@ -4936,13 +4933,13 @@
         <v>11099</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4951,34 +4948,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32" s="7">
         <v>4</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>2559</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>49</v>
+        <v>252</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>56</v>
+        <v>253</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -4987,13 +4984,13 @@
         <v>2559</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5002,25 +4999,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>458</v>
+      </c>
+      <c r="D33" s="7">
+        <v>322645</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>483</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>331840</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="7">
-        <v>458</v>
-      </c>
-      <c r="I33" s="7">
-        <v>322645</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>60</v>
@@ -5049,7 +5046,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -5069,7 +5066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158D6FA4-ED3F-4212-BA1E-ECBA96C50517}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8A0C37-8315-407B-9E7C-082A98869148}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5086,7 +5083,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5731,34 +5728,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>147</v>
+      </c>
+      <c r="D16" s="7">
+        <v>101797</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H16" s="7">
         <v>157</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>112655</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="H16" s="7">
-        <v>147</v>
-      </c>
-      <c r="I16" s="7">
-        <v>101797</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M16" s="7">
         <v>304</v>
@@ -5767,13 +5764,13 @@
         <v>214452</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,34 +5779,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>104</v>
+      </c>
+      <c r="D17" s="7">
+        <v>71787</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H17" s="7">
         <v>86</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>61362</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="H17" s="7">
-        <v>104</v>
-      </c>
-      <c r="I17" s="7">
-        <v>71787</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M17" s="7">
         <v>190</v>
@@ -5818,13 +5815,13 @@
         <v>133149</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5833,34 +5830,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>11</v>
+      </c>
+      <c r="D18" s="7">
+        <v>8727</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H18" s="7">
         <v>14</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>10209</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="H18" s="7">
-        <v>11</v>
-      </c>
-      <c r="I18" s="7">
-        <v>8727</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M18" s="7">
         <v>25</v>
@@ -5869,13 +5866,13 @@
         <v>18937</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5884,34 +5881,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>615</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H19" s="7">
         <v>3</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>2397</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="J19" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>615</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -5920,13 +5917,13 @@
         <v>3012</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5935,34 +5932,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>4</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3056</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H20" s="7">
         <v>1</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>690</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3056</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="K20" s="7" t="s">
-        <v>294</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -5971,13 +5968,13 @@
         <v>3746</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5986,25 +5983,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>267</v>
+      </c>
+      <c r="D21" s="7">
+        <v>185983</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>261</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>187313</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="7">
-        <v>267</v>
-      </c>
-      <c r="I21" s="7">
-        <v>185983</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -6039,34 +6036,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>115</v>
+      </c>
+      <c r="D22" s="7">
+        <v>80757</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H22" s="7">
         <v>133</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>99039</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="H22" s="7">
-        <v>115</v>
-      </c>
-      <c r="I22" s="7">
-        <v>80757</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M22" s="7">
         <v>248</v>
@@ -6075,13 +6072,13 @@
         <v>179796</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6090,34 +6087,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>110</v>
+      </c>
+      <c r="D23" s="7">
+        <v>77402</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H23" s="7">
         <v>90</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>65972</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="H23" s="7">
-        <v>110</v>
-      </c>
-      <c r="I23" s="7">
-        <v>77402</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M23" s="7">
         <v>200</v>
@@ -6126,13 +6123,13 @@
         <v>143374</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6141,34 +6138,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>11</v>
+      </c>
+      <c r="D24" s="7">
+        <v>7594</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H24" s="7">
         <v>8</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>5577</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="H24" s="7">
-        <v>11</v>
-      </c>
-      <c r="I24" s="7">
-        <v>7594</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -6177,13 +6174,13 @@
         <v>13171</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6192,34 +6189,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>7</v>
+      </c>
+      <c r="D25" s="7">
+        <v>5036</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H25" s="7">
         <v>4</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>3461</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="H25" s="7">
-        <v>7</v>
-      </c>
-      <c r="I25" s="7">
-        <v>5036</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -6228,13 +6225,13 @@
         <v>8496</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6249,13 +6246,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>217</v>
+        <v>330</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6264,13 +6261,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>331</v>
+        <v>212</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6279,13 +6276,13 @@
         <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6294,25 +6291,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>243</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170789</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>235</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>174048</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
-        <v>243</v>
-      </c>
-      <c r="I27" s="7">
-        <v>170789</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -6347,34 +6344,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>262</v>
+      </c>
+      <c r="D28" s="7">
+        <v>182554</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H28" s="7">
         <v>290</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>211694</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="H28" s="7">
-        <v>262</v>
-      </c>
-      <c r="I28" s="7">
-        <v>182554</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M28" s="7">
         <v>552</v>
@@ -6383,13 +6380,13 @@
         <v>394248</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6398,34 +6395,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>214</v>
+      </c>
+      <c r="D29" s="7">
+        <v>149189</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H29" s="7">
         <v>176</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>127333</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="H29" s="7">
-        <v>214</v>
-      </c>
-      <c r="I29" s="7">
-        <v>149189</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M29" s="7">
         <v>390</v>
@@ -6434,13 +6431,13 @@
         <v>276522</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6452,31 +6449,31 @@
         <v>22</v>
       </c>
       <c r="D30" s="7">
-        <v>15786</v>
+        <v>16322</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="H30" s="7">
         <v>22</v>
       </c>
       <c r="I30" s="7">
-        <v>16322</v>
+        <v>15786</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M30" s="7">
         <v>44</v>
@@ -6485,10 +6482,10 @@
         <v>32108</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>356</v>
@@ -6500,10 +6497,10 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31" s="7">
-        <v>5858</v>
+        <v>5651</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>357</v>
@@ -6512,13 +6509,13 @@
         <v>358</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H31" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I31" s="7">
-        <v>5651</v>
+        <v>5858</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>359</v>
@@ -6539,10 +6536,10 @@
         <v>362</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>260</v>
+        <v>363</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,34 +6548,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>4</v>
+      </c>
+      <c r="D32" s="7">
+        <v>3056</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H32" s="7">
         <v>1</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>690</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H32" s="7">
-        <v>4</v>
-      </c>
-      <c r="I32" s="7">
-        <v>3056</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>178</v>
+        <v>366</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -6587,13 +6584,13 @@
         <v>3746</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>323</v>
+        <v>368</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6602,25 +6599,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>510</v>
+      </c>
+      <c r="D33" s="7">
+        <v>356772</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>496</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>361361</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="7">
-        <v>510</v>
-      </c>
-      <c r="I33" s="7">
-        <v>356772</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>60</v>
@@ -6649,7 +6646,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -6669,7 +6666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E39DC4-6688-46EC-9440-4AE117901C44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE64CB4F-3CF0-4124-B8D6-5BABE2B961D6}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6686,7 +6683,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7331,49 +7328,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>100</v>
+      </c>
+      <c r="D16" s="7">
+        <v>76514</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H16" s="7">
         <v>125</v>
       </c>
-      <c r="D16" s="7">
-        <v>107699</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="H16" s="7">
-        <v>100</v>
-      </c>
       <c r="I16" s="7">
-        <v>78017</v>
+        <v>113959</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="M16" s="7">
         <v>225</v>
       </c>
       <c r="N16" s="7">
-        <v>185715</v>
+        <v>190473</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>373</v>
+        <v>299</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7382,49 +7379,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>67</v>
+      </c>
+      <c r="D17" s="7">
+        <v>47418</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="H17" s="7">
         <v>51</v>
       </c>
-      <c r="D17" s="7">
-        <v>41613</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="H17" s="7">
-        <v>67</v>
-      </c>
       <c r="I17" s="7">
-        <v>48368</v>
+        <v>42273</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M17" s="7">
         <v>118</v>
       </c>
       <c r="N17" s="7">
-        <v>89981</v>
+        <v>89691</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7433,49 +7430,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>8603</v>
+        <v>2625</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="H18" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I18" s="7">
-        <v>2604</v>
+        <v>8996</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>95</v>
+        <v>391</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="M18" s="7">
         <v>15</v>
       </c>
       <c r="N18" s="7">
-        <v>11207</v>
+        <v>11621</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>391</v>
+        <v>293</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>392</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7484,49 +7481,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>4055</v>
+        <v>3074</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>393</v>
+        <v>48</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>395</v>
       </c>
       <c r="H19" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>3001</v>
+        <v>4335</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>396</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>126</v>
+        <v>397</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
       </c>
       <c r="N19" s="7">
-        <v>7056</v>
+        <v>7409</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>296</v>
+        <v>210</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7538,46 +7535,46 @@
         <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>1669</v>
+        <v>1656</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>96</v>
+        <v>400</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>401</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>1816</v>
+        <v>1764</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
       </c>
       <c r="N20" s="7">
-        <v>3485</v>
+        <v>3419</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>90</v>
+        <v>405</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>166</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7586,25 +7583,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>177</v>
+      </c>
+      <c r="D21" s="7">
+        <v>131287</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>195</v>
       </c>
-      <c r="D21" s="7">
-        <v>163639</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="7">
-        <v>177</v>
-      </c>
       <c r="I21" s="7">
-        <v>133806</v>
+        <v>171327</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -7619,7 +7616,7 @@
         <v>372</v>
       </c>
       <c r="N21" s="7">
-        <v>297444</v>
+        <v>302614</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -7639,49 +7636,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>181</v>
+      </c>
+      <c r="D22" s="7">
+        <v>157215</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H22" s="7">
         <v>177</v>
       </c>
-      <c r="D22" s="7">
-        <v>157616</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="H22" s="7">
-        <v>181</v>
-      </c>
       <c r="I22" s="7">
-        <v>143941</v>
+        <v>165278</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="M22" s="7">
         <v>358</v>
       </c>
       <c r="N22" s="7">
-        <v>301557</v>
+        <v>322493</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7690,49 +7687,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>107</v>
+      </c>
+      <c r="D23" s="7">
+        <v>73017</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="H23" s="7">
         <v>99</v>
       </c>
-      <c r="D23" s="7">
-        <v>79701</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="H23" s="7">
-        <v>107</v>
-      </c>
       <c r="I23" s="7">
-        <v>74734</v>
+        <v>82212</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="M23" s="7">
         <v>206</v>
       </c>
       <c r="N23" s="7">
-        <v>154435</v>
+        <v>155229</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7741,49 +7738,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>8</v>
+      </c>
+      <c r="D24" s="7">
+        <v>5588</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="H24" s="7">
         <v>15</v>
       </c>
-      <c r="D24" s="7">
-        <v>15736</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="H24" s="7">
-        <v>8</v>
-      </c>
       <c r="I24" s="7">
-        <v>5746</v>
+        <v>18852</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>139</v>
+        <v>291</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="M24" s="7">
         <v>23</v>
       </c>
       <c r="N24" s="7">
-        <v>21482</v>
+        <v>24440</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>245</v>
+        <v>429</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7795,46 +7792,46 @@
         <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>2043</v>
+        <v>2964</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>130</v>
+        <v>432</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>58</v>
+        <v>433</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>3110</v>
+        <v>2056</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>399</v>
+        <v>252</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>427</v>
+        <v>253</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
       </c>
       <c r="N25" s="7">
-        <v>5153</v>
+        <v>5021</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>429</v>
+        <v>257</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>258</v>
+        <v>139</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>430</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7843,49 +7840,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>526</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>548</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>432</v>
+        <v>46</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>365</v>
+        <v>437</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>433</v>
+        <v>256</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>358</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7894,25 +7891,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>300</v>
+      </c>
+      <c r="D27" s="7">
+        <v>239310</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>294</v>
       </c>
-      <c r="D27" s="7">
-        <v>255096</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
-        <v>300</v>
-      </c>
       <c r="I27" s="7">
-        <v>228079</v>
+        <v>268398</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -7927,7 +7924,7 @@
         <v>594</v>
       </c>
       <c r="N27" s="7">
-        <v>483175</v>
+        <v>507708</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -7947,49 +7944,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>281</v>
+      </c>
+      <c r="D28" s="7">
+        <v>233730</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H28" s="7">
         <v>302</v>
       </c>
-      <c r="D28" s="7">
-        <v>265314</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="H28" s="7">
-        <v>281</v>
-      </c>
       <c r="I28" s="7">
-        <v>221958</v>
+        <v>279236</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="M28" s="7">
         <v>583</v>
       </c>
       <c r="N28" s="7">
-        <v>487272</v>
+        <v>512966</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7998,49 +7995,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>174</v>
+      </c>
+      <c r="D29" s="7">
+        <v>120435</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H29" s="7">
         <v>150</v>
       </c>
-      <c r="D29" s="7">
-        <v>121314</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="H29" s="7">
-        <v>174</v>
-      </c>
       <c r="I29" s="7">
-        <v>123101</v>
+        <v>124485</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="M29" s="7">
         <v>324</v>
       </c>
       <c r="N29" s="7">
-        <v>244415</v>
+        <v>244920</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8049,49 +8046,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>12</v>
+      </c>
+      <c r="D30" s="7">
+        <v>8213</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="H30" s="7">
         <v>26</v>
       </c>
-      <c r="D30" s="7">
-        <v>24339</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="H30" s="7">
-        <v>12</v>
-      </c>
       <c r="I30" s="7">
-        <v>8350</v>
+        <v>27848</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>455</v>
+        <v>318</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="M30" s="7">
         <v>38</v>
       </c>
       <c r="N30" s="7">
-        <v>32689</v>
+        <v>36061</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>457</v>
+        <v>312</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>458</v>
+        <v>214</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8100,49 +8097,49 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>7</v>
+      </c>
+      <c r="D31" s="7">
+        <v>6039</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="H31" s="7">
         <v>9</v>
       </c>
-      <c r="D31" s="7">
-        <v>6098</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="H31" s="7">
-        <v>7</v>
-      </c>
       <c r="I31" s="7">
-        <v>6111</v>
+        <v>6391</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>463</v>
+        <v>316</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>464</v>
+        <v>360</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M31" s="7">
         <v>16</v>
       </c>
       <c r="N31" s="7">
-        <v>12209</v>
+        <v>12430</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>466</v>
+        <v>216</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>467</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8151,49 +8148,49 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>3</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2181</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="H32" s="7">
         <v>2</v>
       </c>
-      <c r="D32" s="7">
-        <v>1669</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="H32" s="7">
-        <v>3</v>
-      </c>
       <c r="I32" s="7">
-        <v>2364</v>
+        <v>1764</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>431</v>
+        <v>177</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>469</v>
+        <v>46</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>470</v>
+        <v>243</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
       </c>
       <c r="N32" s="7">
-        <v>4033</v>
+        <v>3945</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>323</v>
+        <v>471</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>471</v>
+        <v>215</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>472</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8202,25 +8199,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>477</v>
+      </c>
+      <c r="D33" s="7">
+        <v>370598</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>489</v>
       </c>
-      <c r="D33" s="7">
-        <v>418734</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="7">
-        <v>477</v>
-      </c>
       <c r="I33" s="7">
-        <v>361884</v>
+        <v>439724</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>60</v>
@@ -8235,7 +8232,7 @@
         <v>966</v>
       </c>
       <c r="N33" s="7">
-        <v>780619</v>
+        <v>810322</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>60</v>
@@ -8249,7 +8246,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
